--- a/soilmodel_hashimoto_sandyclayloam.xlsx
+++ b/soilmodel_hashimoto_sandyclayloam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12402\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2465A1-8471-42E9-ACC6-0018027F3CEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4273035-5070-49DE-BE1B-C660C85A8918}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="-375" windowWidth="7770" windowHeight="8745" tabRatio="546" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="-375" windowWidth="7770" windowHeight="8745" tabRatio="546" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kumano" sheetId="14" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="Tables" sheetId="18" r:id="rId6"/>
     <sheet name="Control" sheetId="10" r:id="rId7"/>
     <sheet name="Output" sheetId="11" r:id="rId8"/>
-    <sheet name="rain" sheetId="19" r:id="rId9"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="293">
   <si>
     <t>CONTROL</t>
   </si>
@@ -3534,74 +3534,19 @@
     <t>RMSE</t>
     <phoneticPr fontId="22"/>
   </si>
-  <si>
-    <t>平均</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイキン</t>
-    </rPh>
-    <phoneticPr fontId="22"/>
-  </si>
-  <si>
-    <t>分散</t>
-    <rPh sb="0" eb="2">
-      <t>ブンサン</t>
-    </rPh>
-    <phoneticPr fontId="22"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ate</t>
-    </r>
-    <phoneticPr fontId="22"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <phoneticPr fontId="22"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <phoneticPr fontId="22"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="Arial"/>
@@ -3743,15 +3688,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -3809,7 +3745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3902,7 +3838,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3918,18 +3853,33 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6462,6 +6412,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>降水量</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -6472,12 +6425,126 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Output!$A$8:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Output!$B$8:$B$37</c:f>
+              <c:f>Output!$B$8:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -6567,6 +6634,21 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6597,7 +6679,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Output!$F$7</c:f>
+              <c:f>Output!$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6620,10 +6702,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Output!$F$8:$F$36</c:f>
+              <c:f>Output!$G$8:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>263.5</c:v>
                 </c:pt>
@@ -6710,6 +6792,24 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>343.83305912710966</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>331.84319764348982</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>372.06250704900992</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>372.41121727394841</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>482.91761282722814</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330.0439883980045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>357.43052766028859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6726,7 +6826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Output!$H$7</c:f>
+              <c:f>Output!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6749,10 +6849,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Output!$H$8:$H$36</c:f>
+              <c:f>Output!$I$8:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>263.54107142857299</c:v>
                 </c:pt>
@@ -6839,6 +6939,24 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>344.50747368421042</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>369.51029106028835</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>365.24633891213443</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>349.87000000000103</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>361.82441025640992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>351.58585086042001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340.08645038168368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7019,6 +7137,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7043,10 +7162,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18172946760936062"/>
-          <c:y val="2.4316109422492401E-2"/>
-          <c:w val="0.71443782764942532"/>
-          <c:h val="6.8389536414331181E-2"/>
+          <c:x val="0.1486374835815561"/>
+          <c:y val="4.8125609298837642E-2"/>
+          <c:w val="0.26769538572513335"/>
+          <c:h val="0.23029433820772405"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7112,6 +7231,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -8865,13 +8985,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>51075</xdr:colOff>
+      <xdr:colOff>3450</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>100650</xdr:rowOff>
     </xdr:to>
@@ -8901,13 +9021,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>544470</xdr:colOff>
+      <xdr:colOff>496845</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>43500</xdr:rowOff>
     </xdr:to>
@@ -8939,13 +9059,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>544470</xdr:colOff>
+      <xdr:colOff>496845</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>110175</xdr:rowOff>
     </xdr:to>
@@ -8977,13 +9097,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>60600</xdr:colOff>
+      <xdr:colOff>12975</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>43500</xdr:rowOff>
     </xdr:to>
@@ -9014,16 +9134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>109536</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>290511</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9051,7 +9171,333 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48288</cdr:x>
+      <cdr:y>0.88066</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.634</cdr:x>
+      <cdr:y>0.99588</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CCF6F7-48A4-4C58-B5E8-205BB10386B7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1947864" y="2038350"/>
+          <a:ext cx="609600" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.20165</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06612</cdr:x>
+      <cdr:y>0.70096</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F2A4F0-BD3B-4BD5-91A2-3F5FEF8EFB6B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-444500" y="911225"/>
+          <a:ext cx="1155700" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>土壌水分量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[mm]</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.92641</cdr:x>
+      <cdr:y>0.20165</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99252</cdr:x>
+      <cdr:y>0.64472</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB863FE-3D12-4256-A36D-37335BF2F765}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="3357562" y="846137"/>
+          <a:ext cx="1025526" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>降水量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[mm/day]</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Sheet6"/>
+      <sheetName val="Sheet7"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="F3">
+            <v>0.27291666666133096</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>0.24374999999417923</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>0.26597222221607808</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>0.27986111110658385</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>0.32847222222335404</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -9393,11 +9839,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M2224"/>
+  <dimension ref="A1:M2222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D31"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9409,8 +9855,8 @@
     <col min="5" max="5" width="6.5703125" style="16" customWidth="1"/>
     <col min="6" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="59" customWidth="1"/>
-    <col min="9" max="9" width="12" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="56" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="67" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="16" customWidth="1"/>
     <col min="11" max="11" width="3" style="16" customWidth="1"/>
     <col min="12" max="12" width="8" style="16" customWidth="1"/>
@@ -9419,67 +9865,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>2017</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="48">
         <v>9</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="48">
         <v>22</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="49">
         <f>DATE(A2,B2,C2)</f>
         <v>43000</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <v>0</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="53">
         <v>20.6</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="53">
         <v>22.2</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="53">
         <v>97.813483146067412</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="66">
         <v>0.3253012048192771</v>
       </c>
-      <c r="J2" s="54">
+      <c r="J2" s="53">
         <v>6</v>
       </c>
       <c r="L2" s="17" t="s">
@@ -9490,987 +9936,1168 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="48">
         <v>2017</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="48">
         <v>9</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <v>23</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="49">
         <f t="shared" ref="D3:D22" si="0">DATE(A3,B3,C3)</f>
         <v>43001</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="52">
         <v>6.2166666666744277</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="53">
         <v>19.600000000000001</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="53">
         <v>29.1</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="53">
         <v>89.931468531468497</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="66">
         <v>0.81818181818181823</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+      <c r="A4" s="48">
         <v>2017</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="48">
         <v>9</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <v>24</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <f t="shared" si="0"/>
         <v>43002</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="52">
         <v>7.2333333333372138</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="53">
         <v>19.3</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="53">
         <v>28.2</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="53">
         <v>88.938620689655181</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="66">
         <v>0.46853146853146854</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>2017</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="48">
         <v>9</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <v>25</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <f t="shared" si="0"/>
         <v>43003</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="52">
         <v>8.5833333333721384</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="53">
         <v>18.100000000000001</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="53">
         <v>28.4</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="53">
         <v>85.819444444444443</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="66">
         <v>0.79020979020979021</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="49">
+      <c r="A6" s="48">
         <v>2017</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <v>9</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>26</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <f t="shared" si="0"/>
         <v>43004</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="52">
         <v>8.7500000000582077</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="53">
         <v>18.399999999999999</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="53">
         <v>28.8</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="53">
         <v>89.58758620689656</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="66">
         <v>0.69930069930069927</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="49">
+      <c r="A7" s="48">
         <v>2017</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <v>9</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>27</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <f t="shared" si="0"/>
         <v>43005</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="52">
         <v>6.4000000000814907</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="53">
         <v>19.5</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="53">
         <v>27.3</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="53">
         <v>91.240816326530577</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="66">
         <v>1.2777777777777777</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="53">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="49">
+      <c r="A8" s="48">
         <v>2017</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <v>9</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <v>28</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <f t="shared" si="0"/>
         <v>43006</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="52">
         <v>8.2666666665463708</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="53">
         <v>17</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="53">
         <v>32.9</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="53">
         <v>84.419594594594614</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="64">
         <v>0.72222222222222221</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="53">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="49">
+      <c r="A9" s="48">
         <v>2017</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="48">
         <v>9</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>29</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="49">
         <f t="shared" si="0"/>
         <v>43007</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="52">
         <v>8.4166666666860692</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="53">
         <v>13.9</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="53">
         <v>29</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="53">
         <v>67.29589041095889</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="64">
         <v>1.3958333333333333</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="49">
+      <c r="A10" s="48">
         <v>2017</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="48">
         <v>9</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="48">
         <v>30</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="49">
         <f t="shared" si="0"/>
         <v>43008</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="52">
         <v>7.7333333333954215</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="53">
         <v>14.3</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="53">
         <v>26.8</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="53">
         <v>75.790666666666652</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="64">
         <v>0.87898089171974525</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="49">
+      <c r="A11" s="48">
         <v>2017</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="48">
         <v>10</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <v>1</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="49">
         <f t="shared" si="0"/>
         <v>43009</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="52">
         <v>9.0833333332557231</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="53">
         <v>13.2</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="53">
         <v>26.9</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="53">
         <v>75.154748603351948</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="64">
         <v>0.95151515151515154</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
+      <c r="A12" s="48">
         <v>2017</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="48">
         <v>10</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="48">
         <v>2</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <f t="shared" si="0"/>
         <v>43010</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="52">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="53">
         <v>21.4</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="53">
         <v>25.3</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="53">
         <v>88.998265895953665</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="64">
         <v>0.99315068493150682</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="53">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="49">
+      <c r="A13" s="48">
         <v>2017</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="48">
         <v>10</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="48">
         <v>3</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="49">
         <f t="shared" si="0"/>
         <v>43011</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="52">
         <v>7.4000000000232831</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="53">
         <v>19.7</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="53">
         <v>28.2</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="53">
         <v>93.05195530726256</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="64">
         <v>0.89506172839506171</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="53">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="49">
+      <c r="A14" s="48">
         <v>2017</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="48">
         <v>10</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="48">
         <v>4</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <f t="shared" si="0"/>
         <v>43012</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="52">
         <v>8.0666666667675599</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="53">
         <v>17.600000000000001</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="53">
         <v>24.7</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="53">
         <v>65.625294117647016</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="64">
         <v>1.625</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="49">
+      <c r="A15" s="48">
         <v>2017</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="48">
         <v>10</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="48">
         <v>5</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <f t="shared" si="0"/>
         <v>43013</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="52">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="53">
         <v>17.399999999999999</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="53">
         <v>21.1</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="53">
         <v>79.277456647398765</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="64">
         <v>0.90566037735849059</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="53">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="49">
+      <c r="A16" s="48">
         <v>2017</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="48">
         <v>10</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="48">
         <v>6</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <f t="shared" si="0"/>
         <v>43014</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="52">
         <v>0</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="53">
         <v>18.2</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="53">
         <v>22.4</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="53">
         <v>91.598888888888908</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="64">
         <v>2.5269461077844313</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="53">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="49">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="48">
         <v>2017</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="48">
         <v>10</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="48">
         <v>7</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="49">
         <f t="shared" si="0"/>
         <v>43015</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="52">
         <v>5.8666666665812954</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="53">
         <v>18.8</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="53">
         <v>25.3</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="53">
         <v>97.624324324324306</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="64">
         <v>0.2129032258064516</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="49">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="48">
         <v>2017</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="48">
         <v>10</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="48">
         <v>8</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="49">
         <f t="shared" si="0"/>
         <v>43016</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="52">
         <v>7.9166666668024845</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="53">
         <v>18.3</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="53">
         <v>28.2</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="53">
         <v>91.312429378531164</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="64">
         <v>0.51592356687898089</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="49">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="48">
         <v>2017</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="48">
         <v>10</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="48">
         <v>9</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="49">
         <f t="shared" si="0"/>
         <v>43017</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="52">
         <v>7.5666666666666664</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="53">
         <v>19.7</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="53">
         <v>27.9</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="53">
         <v>94.208139534883628</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="64">
         <v>0.70469798657718119</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="49">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="48">
         <v>2017</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="48">
         <v>10</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="48">
         <v>10</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="49">
         <f t="shared" si="0"/>
         <v>43018</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="52">
         <v>6.566666666592937</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="53">
         <v>20.3</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="53">
         <v>27.9</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="53">
         <v>91.103589743589723</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="64">
         <v>0.61111111111111116</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="49">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="48">
         <v>2017</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="48">
         <v>10</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="48">
         <v>11</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="49">
         <f t="shared" si="0"/>
         <v>43019</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="52">
         <v>7.4166666667442769</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="53">
         <v>19.5</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="53">
         <v>29.4</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="53">
         <v>90.266019417475761</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="64">
         <v>0.76315789473684215</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="49">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="48">
         <v>2017</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="48">
         <v>10</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="48">
         <v>12</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="49">
         <f t="shared" si="0"/>
         <v>43020</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="52">
         <v>7.7499999999417923</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="53">
         <v>20.3</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="53">
         <v>28.1</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="53">
         <v>87.694082840236632</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="64">
         <v>0.75974025974025972</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="49">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="48">
         <v>2017</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="48">
         <v>10</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="48">
         <v>13</v>
       </c>
-      <c r="D23" s="50">
-        <f t="shared" ref="D23:D31" si="1">DATE(A23,B23,C23)</f>
+      <c r="D23" s="49">
+        <f t="shared" ref="D23:D37" si="1">DATE(A23,B23,C23)</f>
         <v>43021</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="52">
         <v>3.3333333335467614</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="53">
         <v>20.100000000000001</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="53">
         <v>24.9</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="53">
         <v>93.77409638554218</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="64">
         <v>0.52795031055900621</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="49">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="48">
         <v>2017</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="48">
         <v>10</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="48">
         <v>14</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="49">
         <f t="shared" si="1"/>
         <v>43022</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="52">
         <v>1.8500000002677552</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="53">
         <v>19</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="53">
         <v>24.3</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="53">
         <v>94.944632768361629</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="64">
         <v>0.21518987341772153</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="49">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="48">
         <v>2017</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="48">
         <v>10</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="48">
         <v>15</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="49">
         <f t="shared" si="1"/>
         <v>43023</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="52">
         <v>0.33333333319751546</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="53">
         <v>16.8</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="53">
         <v>19.8</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="53">
         <v>99.993406593406647</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="64">
         <v>0.18181818181818182</v>
       </c>
-      <c r="J25" s="54">
+      <c r="J25" s="53">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="49">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="48">
         <v>2017</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="48">
         <v>10</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="48">
         <v>16</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="49">
         <f t="shared" si="1"/>
         <v>43024</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="52">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="53">
         <v>16.8</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="53">
         <v>19</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="53">
         <v>102.22580645161297</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I26" s="64">
         <v>0.21556886227544911</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="53">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="49">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="48">
         <v>2017</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="48">
         <v>10</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="48">
         <v>17</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="49">
         <f t="shared" si="1"/>
         <v>43025</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="52">
         <v>2.7000000000698492</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="53">
         <v>15.5</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="53">
         <v>19.2</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="53">
         <v>101.75574712643684</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="64">
         <v>8.1081081081081086E-2</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="53">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="49">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="48">
         <v>2017</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="48">
         <v>10</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="48">
         <v>18</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="49">
         <f t="shared" si="1"/>
         <v>43026</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="52">
         <v>1.8499999997438863</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="53">
         <v>14.4</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G28" s="53">
         <v>20.399999999999999</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="53">
         <v>98.618749999999991</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="64">
         <v>0.56862745098039214</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28" s="53">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="49">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="48">
         <v>2017</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="48">
         <v>10</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="48">
         <v>19</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="49">
         <f t="shared" si="1"/>
         <v>43027</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="52">
         <v>3.1833333332324401</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="53">
         <v>15.1</v>
       </c>
-      <c r="G29" s="54">
+      <c r="G29" s="53">
         <v>17.899999999999999</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="53">
         <v>96.221965317919057</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="64">
         <v>1.64375</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="53">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="49">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="48">
         <v>2017</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="48">
         <v>10</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="48">
         <v>20</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="49">
         <f t="shared" si="1"/>
         <v>43028</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="52">
         <v>1.0166666666627862</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="53">
         <v>16.899999999999999</v>
       </c>
-      <c r="G30" s="54">
+      <c r="G30" s="53">
         <v>20.3</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="53">
         <v>99.839548022598777</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I30" s="64">
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="J30" s="54">
+      <c r="J30" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="49">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="48">
         <v>2017</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="48">
         <v>10</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="48">
         <v>21</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="49">
         <f t="shared" si="1"/>
         <v>43029</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="52">
         <v>0</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="53">
         <v>18.2</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="53">
         <v>21.4</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="53">
         <v>102.23734939759035</v>
       </c>
-      <c r="I31" s="56">
+      <c r="I31" s="64">
         <v>0.58024691358024694</v>
       </c>
-      <c r="J31" s="54">
+      <c r="J31" s="53">
         <v>194</v>
       </c>
-      <c r="L31" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="M31" s="16">
-        <f>AVERAGE(J2:J31)</f>
-        <v>17.133333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="L32" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="M32" s="16">
-        <f>_xlfn.STDEV.P(J2:J31)</f>
-        <v>36.646721848239331</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F33" s="57"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="2224" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L2224" s="16" t="s">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="48">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="48">
+        <v>10</v>
+      </c>
+      <c r="C32" s="48">
+        <v>22</v>
+      </c>
+      <c r="D32" s="49">
+        <f t="shared" si="1"/>
+        <v>43030</v>
+      </c>
+      <c r="E32" s="52">
+        <f>[1]Sheet7!F2*24</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="63">
+        <v>18.2</v>
+      </c>
+      <c r="G32" s="63">
+        <v>21.6</v>
+      </c>
+      <c r="H32" s="63">
+        <v>100.32596685082871</v>
+      </c>
+      <c r="I32" s="65">
+        <v>1.1646341463414633</v>
+      </c>
+      <c r="J32" s="63">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="48">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="48">
+        <v>10</v>
+      </c>
+      <c r="C33" s="48">
+        <v>23</v>
+      </c>
+      <c r="D33" s="49">
+        <f t="shared" si="1"/>
+        <v>43031</v>
+      </c>
+      <c r="E33" s="52">
+        <f>[1]Sheet7!F3*24</f>
+        <v>6.5499999998719431</v>
+      </c>
+      <c r="F33" s="63">
+        <v>17</v>
+      </c>
+      <c r="G33" s="63">
+        <v>22</v>
+      </c>
+      <c r="H33" s="63">
+        <v>77.437349397590339</v>
+      </c>
+      <c r="I33" s="65">
+        <v>3.4487179487179489</v>
+      </c>
+      <c r="J33" s="63">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="48">
+        <v>2017</v>
+      </c>
+      <c r="B34" s="48">
+        <v>10</v>
+      </c>
+      <c r="C34" s="48">
+        <v>24</v>
+      </c>
+      <c r="D34" s="49">
+        <f t="shared" si="1"/>
+        <v>43032</v>
+      </c>
+      <c r="E34" s="52">
+        <f>[1]Sheet7!F4*24</f>
+        <v>5.8499999998603016</v>
+      </c>
+      <c r="F34" s="63">
+        <v>11</v>
+      </c>
+      <c r="G34" s="63">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H34" s="63">
+        <v>72.938505747126371</v>
+      </c>
+      <c r="I34" s="65">
+        <v>0.73493975903614461</v>
+      </c>
+      <c r="J34" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="48">
+        <v>2017</v>
+      </c>
+      <c r="B35" s="48">
+        <v>10</v>
+      </c>
+      <c r="C35" s="48">
+        <v>25</v>
+      </c>
+      <c r="D35" s="49">
+        <f t="shared" si="1"/>
+        <v>43033</v>
+      </c>
+      <c r="E35" s="52">
+        <f>[1]Sheet7!F5*24</f>
+        <v>6.3833333331858739</v>
+      </c>
+      <c r="F35" s="63">
+        <v>14.2</v>
+      </c>
+      <c r="G35" s="63">
+        <v>23.5</v>
+      </c>
+      <c r="H35" s="63">
+        <v>93.738797814207658</v>
+      </c>
+      <c r="I35" s="65">
+        <v>0.69281045751633985</v>
+      </c>
+      <c r="J35" s="63">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="48">
+        <v>2017</v>
+      </c>
+      <c r="B36" s="48">
+        <v>10</v>
+      </c>
+      <c r="C36" s="48">
+        <v>26</v>
+      </c>
+      <c r="D36" s="49">
+        <f t="shared" si="1"/>
+        <v>43034</v>
+      </c>
+      <c r="E36" s="52">
+        <f>[1]Sheet7!F6*24</f>
+        <v>6.7166666665580124</v>
+      </c>
+      <c r="F36" s="63">
+        <v>11.1</v>
+      </c>
+      <c r="G36" s="63">
+        <v>23.6</v>
+      </c>
+      <c r="H36" s="63">
+        <v>76.757608695652138</v>
+      </c>
+      <c r="I36" s="65">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="J36" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="48">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="48">
+        <v>10</v>
+      </c>
+      <c r="C37" s="48">
+        <v>27</v>
+      </c>
+      <c r="D37" s="49">
+        <f t="shared" si="1"/>
+        <v>43035</v>
+      </c>
+      <c r="E37" s="52">
+        <f>[1]Sheet7!F7*24</f>
+        <v>7.8833333333604969</v>
+      </c>
+      <c r="F37" s="63">
+        <v>11.9</v>
+      </c>
+      <c r="G37" s="63">
+        <v>22.7</v>
+      </c>
+      <c r="H37" s="63">
+        <v>89.195336787564727</v>
+      </c>
+      <c r="I37" s="65">
+        <v>0.61494252873563215</v>
+      </c>
+      <c r="J37" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2222" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L2222" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10531,7 +11158,7 @@
       </c>
       <c r="H2" s="3">
         <f>1370*(1+0.033*COS(2*PI()*(doy-10)/365))</f>
-        <v>1412.8133163165694</v>
+        <v>1411.0876453841188</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10553,7 +11180,7 @@
       </c>
       <c r="H3" s="3">
         <f ca="1">E22*ACOS(-E24)+E23*SQRT(1-(E24)^2)</f>
-        <v>0.53764428443535961</v>
+        <v>0.56452271434173029</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10568,7 +11195,7 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">3600*Ic*24/PI()*H3</f>
-        <v>20890252.182470948</v>
+        <v>21907825.866169441</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10587,7 +11214,7 @@
       </c>
       <c r="H5" s="3">
         <f ca="1">Ietd*(B3+B4*sunhr/DL)</f>
-        <v>6058173.1329165744</v>
+        <v>13282951.954234447</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10602,7 +11229,7 @@
       </c>
       <c r="E6">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),2,FALSE)</f>
-        <v>0</v>
+        <v>7.8833333333604969</v>
       </c>
       <c r="F6"/>
     </row>
@@ -10613,7 +11240,7 @@
       </c>
       <c r="E7">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),3,FALSE)</f>
-        <v>18.2</v>
+        <v>11.9</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="9" t="s">
@@ -10621,7 +11248,7 @@
       </c>
       <c r="H7" s="3">
         <f ca="1">Itd/Ietd</f>
-        <v>0.28999999999999998</v>
+        <v>0.60631082405791259</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10633,7 +11260,7 @@
       </c>
       <c r="E8">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),4,FALSE)</f>
-        <v>21.4</v>
+        <v>22.7</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="10" t="s">
@@ -10641,7 +11268,7 @@
       </c>
       <c r="H8" s="3">
         <f ca="1">Itd</f>
-        <v>6058173.1329165744</v>
+        <v>13282951.954234447</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10657,7 +11284,7 @@
       </c>
       <c r="E9" s="3">
         <f ca="1">AVERAGE(E7:E8)</f>
-        <v>19.799999999999997</v>
+        <v>17.3</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="10" t="s">
@@ -10665,7 +11292,7 @@
       </c>
       <c r="H9" s="3">
         <f ca="1">Itd*(1-2.3*(H7-0.07)^2)</f>
-        <v>5383777.2997603016</v>
+        <v>4495649.7573640067</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10674,7 +11301,7 @@
       </c>
       <c r="E10">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),5,FALSE)</f>
-        <v>102.23734939759035</v>
+        <v>89.195336787564727</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="10" t="s">
@@ -10682,7 +11309,7 @@
       </c>
       <c r="H10" s="3">
         <f ca="1">Itd*(1.33-1.46*H7)</f>
-        <v>5492339.7623021668</v>
+        <v>5908073.6830032365</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10691,7 +11318,7 @@
       </c>
       <c r="E11">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),6,FALSE)</f>
-        <v>0.58024691358024694</v>
+        <v>0.61494252873563215</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="10" t="s">
@@ -10699,7 +11326,7 @@
       </c>
       <c r="H11" s="3">
         <f ca="1">Itd*0.23</f>
-        <v>1393379.8205708121</v>
+        <v>3055078.9494739231</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -10708,7 +11335,7 @@
       </c>
       <c r="E12">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),7,FALSE)</f>
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>97</v>
@@ -10724,7 +11351,7 @@
       </c>
       <c r="H13" s="3" t="b">
         <f ca="1">AND(H7&gt;=0.07,H7&lt;0.35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -10736,7 +11363,7 @@
       </c>
       <c r="H14" s="3" t="b">
         <f ca="1">AND(H7&gt;=0.35,H7&lt;0.75)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10745,14 +11372,14 @@
       </c>
       <c r="E15" s="3">
         <f ca="1">24-E16</f>
-        <v>6.8457286226508955</v>
+        <v>6.7662239983839356</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="3">
         <f ca="1">IF(H12,H8,IF(H13,H9,IF(H14,H10,H11)))</f>
-        <v>5383777.2997603016</v>
+        <v>5908073.6830032365</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10761,14 +11388,14 @@
       </c>
       <c r="E16" s="3">
         <f ca="1">12+(12/PI())*ACOS(-E22/E23)</f>
-        <v>17.154271377349104</v>
+        <v>17.233776001616064</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>55</v>
       </c>
       <c r="H16" s="3">
         <f ca="1">Itd-Idfd</f>
-        <v>674395.83315627277</v>
+        <v>7374878.2712312108</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -10777,7 +11404,7 @@
       </c>
       <c r="E17" s="3">
         <f ca="1">E16-E15</f>
-        <v>10.308542754698209</v>
+        <v>10.467552003232129</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10786,7 +11413,7 @@
       </c>
       <c r="H18" s="3">
         <f ca="1">MAX(0,Ic*SIN(sunhgt))</f>
-        <v>860.56992164255485</v>
+        <v>890.09147443327936</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -10798,7 +11425,7 @@
       </c>
       <c r="H19" s="3">
         <f ca="1">PI()*Itd/86400</f>
-        <v>220.28139130261309</v>
+        <v>482.98176247001305</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -10807,14 +11434,14 @@
       </c>
       <c r="E20" s="3">
         <f>-0.4093*COS(2*PI()*(doy+10)/365)</f>
-        <v>-0.32047375643502179</v>
+        <v>-0.29251581690738393</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>69</v>
       </c>
       <c r="H20" s="3">
         <f ca="1">E22*ACOS(-E24)+E23*SQRT(1-E24^2)</f>
-        <v>0.53764428443535961</v>
+        <v>0.56452271434173029</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -10831,7 +11458,7 @@
       </c>
       <c r="H21" s="3">
         <f ca="1">H19/H20</f>
-        <v>409.71586173180509</v>
+        <v>855.55771309078466</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -10841,14 +11468,14 @@
       </c>
       <c r="E22" s="3">
         <f ca="1">SIN(decl)*SIN(lat)</f>
-        <v>-0.17382325896302267</v>
+        <v>-0.15911572839495963</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>62</v>
       </c>
       <c r="H22" s="3">
         <f ca="1">E22*H21</f>
-        <v>-71.218146335065541</v>
+        <v>-136.1326887023661</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -10857,14 +11484,14 @@
       </c>
       <c r="E23" s="3">
         <f ca="1">COS(decl)*COS(lat)</f>
-        <v>0.79152101038125022</v>
+        <v>0.79855578040289354</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="3">
         <f ca="1">E23*H21</f>
-        <v>324.29871284718297</v>
+        <v>683.21055725692645</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10873,14 +11500,14 @@
       </c>
       <c r="E24" s="3">
         <f ca="1">E22/E23</f>
-        <v>-0.21960662658758431</v>
+        <v>-0.19925436932493473</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H24" s="3">
         <f ca="1">MAX(0,H22-H23*COS(PI()*th/12))</f>
-        <v>249.56527727634088</v>
+        <v>539.67209535056406</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -10889,7 +11516,7 @@
       </c>
       <c r="E25" s="3">
         <f ca="1">ACOS(E22+E23*COS(ha))</f>
-        <v>0.91584842107291053</v>
+        <v>0.88823319813887047</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10898,14 +11525,14 @@
       </c>
       <c r="E26" s="3">
         <f ca="1">(PI()/2)-suninc</f>
-        <v>0.65494790572198602</v>
+        <v>0.68256312865602609</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H26" s="3">
         <f ca="1">IF(Iet&lt;=0,0,It/Iet)</f>
-        <v>0.28999999999999998</v>
+        <v>0.60631082405791259</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -10914,14 +11541,14 @@
       </c>
       <c r="E27" s="3">
         <f ca="1">(SIN(lat)*SIN(sunhgt)-SIN(decl))/(COS(lat)*COS(sunhgt))</f>
-        <v>0.98443942818246188</v>
+        <v>0.98344667898086147</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="3">
         <f ca="1">0.847-1.61*SIN(sunhgt)+1.04*SIN(sunhgt)^2</f>
-        <v>0.25218577171285012</v>
+        <v>0.24524176020605837</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -10930,14 +11557,14 @@
       </c>
       <c r="E28" s="3">
         <f ca="1">ACOS(MAX(-1,MIN(1,E27)))</f>
-        <v>0.1766414183918934</v>
+        <v>0.18220423940939501</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="3">
         <f ca="1">(1.47-H27)/1.66</f>
-        <v>0.73362302908864452</v>
+        <v>0.73780616855056724</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10947,14 +11574,14 @@
       </c>
       <c r="E29" s="3">
         <f ca="1">PI()+IF(th&lt;12,-E28,E28)</f>
-        <v>2.9649512351978995</v>
+        <v>2.9593884141803981</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>74</v>
       </c>
       <c r="H29" s="3">
         <f ca="1">It</f>
-        <v>249.56527727634088</v>
+        <v>539.67209535056406</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10964,7 +11591,7 @@
       </c>
       <c r="H30" s="3">
         <f ca="1">It*(1-6.4*(H26-0.22)^2)</f>
-        <v>241.73891018095483</v>
+        <v>24.225482179668283</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10976,7 +11603,7 @@
       </c>
       <c r="H31" s="3">
         <f ca="1">It*(1.47-1.66*H26)</f>
-        <v>246.72023311539061</v>
+        <v>250.15098562924817</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10985,14 +11612,14 @@
       </c>
       <c r="E32" s="3">
         <f ca="1">Tmin+(Tmax-Tmin)*SIN((PI()*(tss-tsr-1.5))/DL)</f>
-        <v>19.612411244237325</v>
+        <v>16.599477021204095</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>77</v>
       </c>
       <c r="H32" s="3">
         <f ca="1">It*H27</f>
-        <v>62.936812042665444</v>
+        <v>132.3501345978641</v>
       </c>
     </row>
     <row r="33" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
@@ -11001,7 +11628,7 @@
       </c>
       <c r="E33" s="3">
         <f ca="1">Tset+((Tmin-Tset)*(th+tsr))/((tsr+1.5)+tsr)</f>
-        <v>17.912584638617428</v>
+        <v>10.908720290213783</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>97</v>
@@ -11017,14 +11644,14 @@
       </c>
       <c r="E34" s="3">
         <f ca="1">Tset+((Tmin-Tset)*(th-tss))/((tsr+1.5)+tsr)</f>
-        <v>20.143961741836364</v>
+        <v>18.411653181326972</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>98</v>
       </c>
       <c r="H34" s="3" t="b">
         <f ca="1">AND(H26&gt;0.22,H26&lt;=0.35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
@@ -11033,14 +11660,14 @@
       </c>
       <c r="E35" s="3">
         <f ca="1">Tmin+(Tmax-Tmin)*SIN((PI()*(th-tsr-1.5))/DL)</f>
-        <v>20.788159262706593</v>
+        <v>20.695294508705331</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>99</v>
       </c>
       <c r="H35" s="3" t="b">
         <f ca="1">AND(H26&gt;0.35,H26&lt;=H28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
@@ -11049,14 +11676,14 @@
       </c>
       <c r="E36" s="3">
         <f ca="1">IF(th&lt;(tsr+1.5),E33,IF(th&gt;tss,E34,E35))</f>
-        <v>20.788159262706593</v>
+        <v>20.695294508705331</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H36" s="3">
         <f ca="1">IF(H33,H29,IF(H34,H30,IF(H35,H31,H32)))</f>
-        <v>241.73891018095483</v>
+        <v>250.15098562924817</v>
       </c>
       <c r="I36" s="3"/>
     </row>
@@ -11066,14 +11693,14 @@
       </c>
       <c r="E37" s="3">
         <f ca="1">Ta+273.15</f>
-        <v>293.93815926270656</v>
+        <v>293.84529450870531</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>64</v>
       </c>
       <c r="H37" s="3">
         <f ca="1">It-Idf</f>
-        <v>7.8263670953860469</v>
+        <v>289.5211097213159</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -11090,14 +11717,14 @@
       </c>
       <c r="E40" s="3">
         <f ca="1">MIN(Ta,Tdmax)</f>
-        <v>20.788159262706593</v>
+        <v>20.695294508705331</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H40" s="3">
         <f ca="1">0.98*SB*Tak^4*(1.31*(ea/Tak)^(1/7)-1)</f>
-        <v>-33.672796299074918</v>
+        <v>-33.92374737355685</v>
       </c>
     </row>
     <row r="41" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
@@ -11106,14 +11733,14 @@
       </c>
       <c r="E41" s="3">
         <f ca="1">6.1078*EXP(17.269*Ta/(Ta+237.3))</f>
-        <v>24.54549307426846</v>
+        <v>24.405609321802402</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>66</v>
       </c>
       <c r="H41" s="3">
         <f ca="1">(1-p)*It+RnL</f>
-        <v>178.45768938581483</v>
+        <v>424.7975336744226</v>
       </c>
     </row>
     <row r="42" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
@@ -11122,7 +11749,7 @@
       </c>
       <c r="E42" s="3">
         <f ca="1">6.1078*EXP(17.269*Tdcal/(Tdcal+237.3))</f>
-        <v>24.54549307426846</v>
+        <v>24.405609321802402</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
@@ -11140,7 +11767,7 @@
       </c>
       <c r="E44" s="16">
         <f ca="1">(25029.4*EXP(17.269*Ta/(Ta+237.3)))/(Ta+237.3)^2</f>
-        <v>1.5100844367951112</v>
+        <v>1.5025596292197105</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
@@ -11174,7 +11801,7 @@
       </c>
       <c r="E50" s="3">
         <f ca="1">0.5*ud</f>
-        <v>0.29012345679012347</v>
+        <v>0.30747126436781608</v>
       </c>
     </row>
     <row r="51" spans="4:5" ht="19.5" x14ac:dyDescent="0.35">
@@ -11183,7 +11810,7 @@
       </c>
       <c r="E51" s="3">
         <f ca="1">umin-(12*PI()*(umin-ud))/DL</f>
-        <v>1.3511266369773829</v>
+        <v>1.4148355822480243</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
@@ -11192,7 +11819,7 @@
       </c>
       <c r="E52" s="3">
         <f ca="1">umax-umin</f>
-        <v>1.0610031801872595</v>
+        <v>1.1073643178802082</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
@@ -11201,7 +11828,7 @@
       </c>
       <c r="E53" s="3">
         <f ca="1">umin+IF(OR(th&lt;tsr+1.5,th&gt;tss+1.5),0,E52*SIN(PI()/DL*(th-tsr-1.5)))</f>
-        <v>1.1482625844660013</v>
+        <v>1.2092856443852253</v>
       </c>
     </row>
   </sheetData>
@@ -11262,14 +11889,14 @@
       </c>
       <c r="G3" s="16">
         <f ca="1">ET!K2</f>
-        <v>24.201789844173852</v>
+        <v>28.345210796088296</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>132</v>
       </c>
       <c r="J3" s="16">
         <f ca="1">(1-pp)*Qdr*EXP(-kdr*L)</f>
-        <v>1.4565624365862122</v>
+        <v>58.638593753760638</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11288,7 +11915,7 @@
       </c>
       <c r="J4" s="16">
         <f ca="1">(1-pp)*Qdr*EXP(-SQRT(alpha)*kdr*L)</f>
-        <v>1.8890241434054105</v>
+        <v>75.372651539341376</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11309,7 +11936,7 @@
       </c>
       <c r="J5" s="16">
         <f ca="1">(J3-J4)/2</f>
-        <v>-0.21623085340959913</v>
+        <v>-8.3670288927903691</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11324,7 +11951,7 @@
       </c>
       <c r="D6" s="16">
         <f ca="1">B6*C6^((Tf-25)/10)</f>
-        <v>282.74919905662426</v>
+        <v>384.51244541729585</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>145</v>
@@ -11349,7 +11976,7 @@
       </c>
       <c r="D7" s="16">
         <f ca="1">B7*C7^((Tf-25)/10)</f>
-        <v>295665.68777178589</v>
+        <v>318866.61440212541</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>124</v>
@@ -11363,7 +11990,7 @@
       </c>
       <c r="J7" s="16">
         <f ca="1">(1-pp)*Qdf*(1-EXP(-J6))/J6</f>
-        <v>218.79545946684968</v>
+        <v>226.4091444603057</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11378,7 +12005,7 @@
       </c>
       <c r="D8" s="16">
         <f ca="1">B8*C8^((Tf-25)/10)</f>
-        <v>2719.3159180316925</v>
+        <v>2154.3107130501498</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>127</v>
@@ -11400,14 +12027,14 @@
       </c>
       <c r="D9" s="16">
         <f ca="1">(B9*C9^((Tf-25)/10))/(1+EXP(0.29*(Tf-40)))</f>
-        <v>184.61063159298016</v>
+        <v>259.22483787843402</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>125</v>
       </c>
       <c r="G9" s="16">
         <f ca="1">-2*COS(suninc)/L*LN(G7+G8*EXP(-L/(2*G8*COS(suninc))))</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>146</v>
@@ -11426,7 +12053,7 @@
       </c>
       <c r="J10" s="16">
         <f ca="1">alpha*(kdr*Qdr+J7+J5)</f>
-        <v>186.55569026650963</v>
+        <v>592.11109100661247</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11442,14 +12069,14 @@
       </c>
       <c r="G11" s="16">
         <f ca="1">MAX(0,G10/(2*COS(suninc)))</f>
-        <v>0.82085910789210315</v>
+        <v>0.79266439793873844</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>137</v>
       </c>
       <c r="J11" s="16">
         <f ca="1">alpha*(J7+J5)</f>
-        <v>174.86338289075206</v>
+        <v>174.43369245401229</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11504,7 +12131,7 @@
       </c>
       <c r="J14" s="16">
         <f ca="1">Oa/(2*tau)</f>
-        <v>38.612652286462385</v>
+        <v>48.739487467588766</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11519,7 +12146,7 @@
       </c>
       <c r="J15" s="16">
         <f ca="1">Vcmax*(Ci-co2pt)/(Kc*(1+Oa/Ko)+Ci)</f>
-        <v>56.685211200647053</v>
+        <v>63.18534349410168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11531,7 +12158,7 @@
       </c>
       <c r="J16" s="16">
         <f ca="1">0.5*Vcmax</f>
-        <v>92.305315796490078</v>
+        <v>129.61241893921701</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11544,14 +12171,14 @@
       </c>
       <c r="G17" s="16">
         <f ca="1">(1-EXP(-kdr*L))/kdr</f>
-        <v>1.114423839911227</v>
+        <v>1.1445745605451754</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>141</v>
       </c>
       <c r="J17" s="16">
         <f ca="1">em*alpha*Qsl*((Ci-co2pt)/(Ci+2*co2pt))</f>
-        <v>7.9564019424871111</v>
+        <v>22.816792236080801</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11566,14 +12193,14 @@
       </c>
       <c r="G18" s="16">
         <f ca="1">L-Lsl</f>
-        <v>1.885576160088773</v>
+        <v>1.8554254394548246</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>142</v>
       </c>
       <c r="J18" s="16">
         <f ca="1">em*alpha*Qsh*((Ci-co2pt)/(Ci+2*co2pt))</f>
-        <v>7.457737457990631</v>
+        <v>6.7217408694868821</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11588,7 +12215,7 @@
       </c>
       <c r="J19" s="16">
         <f ca="1">Lsl*MIN(vc,vs,vqsl)+Lsh*MIN(vc,vs,vqsh)</f>
-        <v>22.928935963611814</v>
+        <v>38.587208953331903</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -11605,7 +12232,7 @@
         <v>148</v>
       </c>
       <c r="J20" s="16">
-        <v>150.55154298714098</v>
+        <v>276.41575952532946</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
@@ -11620,14 +12247,14 @@
       </c>
       <c r="G21" s="16">
         <f ca="1">0.5*Idr*4.55</f>
-        <v>17.804985142003257</v>
+        <v>658.66052461599361</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>151</v>
       </c>
       <c r="J21" s="16">
         <f>J20*3600*30*10^-6</f>
-        <v>16.259566642611222</v>
+        <v>29.852902028735581</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11642,7 +12269,7 @@
       </c>
       <c r="G22" s="16">
         <f ca="1">0.5*Idf*4.55</f>
-        <v>549.95602066167226</v>
+        <v>569.09349230653959</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -11758,14 +12385,14 @@
       </c>
       <c r="H2" s="16">
         <f ca="1">(slopesvp+psycho)*raa</f>
-        <v>44.914644242984622</v>
+        <v>42.500138517740851</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="K2" s="16">
         <f ca="1">((Hc*rca+(Hs+Hc)*raa)/pcp)+Ta</f>
-        <v>24.201789844173852</v>
+        <v>28.345210796088296</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -11786,7 +12413,7 @@
       </c>
       <c r="H3" s="16">
         <f ca="1">(slopesvp+psycho)*rca+psycho*rcs</f>
-        <v>200.09654740500031</v>
+        <v>178.53177180606224</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
@@ -11808,7 +12435,7 @@
       </c>
       <c r="H4" s="16">
         <f ca="1">(slopesvp+psycho)*rsa+psycho*rss</f>
-        <v>113.70056876663132</v>
+        <v>117.55585912372686</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -11830,7 +12457,7 @@
       </c>
       <c r="H5" s="16">
         <f ca="1">(1+(H3*H2)/(H4*(H3+H2)))^-1</f>
-        <v>0.75608028100700253</v>
+        <v>0.77398424087245121</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -11845,14 +12472,14 @@
       </c>
       <c r="E6" s="35">
         <f>Water!H9</f>
-        <v>0.30252053471380747</v>
+        <v>0.28750330310171196</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>205</v>
       </c>
       <c r="H6" s="16">
         <f ca="1">(1+(H4*H2)/(H3*(H4+H2)))^-1</f>
-        <v>0.86139785447288719</v>
+        <v>0.85117788015568141</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -11867,7 +12494,7 @@
       </c>
       <c r="H7" s="16">
         <f ca="1">slopesvp*A+(pcp*vpd-slopesvp*rca*As)/(raa+rca)</f>
-        <v>188.32626076498491</v>
+        <v>444.96168243365366</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -11885,7 +12512,7 @@
       </c>
       <c r="H8" s="16">
         <f ca="1">slopesvp+psycho*(1+rcs/(raa+rca))</f>
-        <v>4.3802532551434421</v>
+        <v>4.093949972498983</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -11901,7 +12528,7 @@
       </c>
       <c r="H9" s="16">
         <f ca="1">H7/H8</f>
-        <v>42.994377218679269</v>
+        <v>108.68762086070269</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -11913,14 +12540,14 @@
       </c>
       <c r="E10" s="16">
         <f ca="1">0.3*pRn*Rn</f>
-        <v>21.766644615505282</v>
+        <v>51.812936617396709</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>200</v>
       </c>
       <c r="H10" s="16">
         <f ca="1">slopesvp*A+(pcp*vpd-slopesvp*rsa*Ac)/(raa+rsa)</f>
-        <v>134.38279939268131</v>
+        <v>318.28845729195393</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -11935,14 +12562,14 @@
       </c>
       <c r="E11" s="16">
         <f ca="1">(1-pRn)*Rn</f>
-        <v>105.90220733413055</v>
+        <v>252.08774494976686</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>201</v>
       </c>
       <c r="H11" s="16">
         <f ca="1">slopesvp+psycho*(1+rss/(raa+rsa))</f>
-        <v>2.7618973630485799</v>
+        <v>2.9350961508855544</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -11957,14 +12584,14 @@
       </c>
       <c r="E12" s="16">
         <f ca="1">pRn*Rn-G</f>
-        <v>50.78883743617898</v>
+        <v>120.89685210725901</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>203</v>
       </c>
       <c r="H12" s="16">
         <f ca="1">H10/H11</f>
-        <v>48.655971503716451</v>
+        <v>108.44225910484138</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -11979,14 +12606,14 @@
       </c>
       <c r="E13" s="16">
         <f ca="1">Ac+As</f>
-        <v>156.69104477030953</v>
+        <v>372.98459705702589</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>206</v>
       </c>
       <c r="H13" s="16">
         <f ca="1">H5*H9+H6*H12</f>
-        <v>74.419350269815368</v>
+        <v>176.42615794825579</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12001,7 +12628,7 @@
       </c>
       <c r="H15" s="16">
         <f ca="1">vpd+(raa/pcp)*(slopesvp*A-(slopesvp+psycho)*LET)</f>
-        <v>1.2769733057465278</v>
+        <v>2.8876284006231296</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12038,7 +12665,7 @@
       </c>
       <c r="H17" s="16">
         <f ca="1">slopesvp*As+pcp*vpd0/rsa</f>
-        <v>119.16750692188565</v>
+        <v>282.80117768470257</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -12053,14 +12680,14 @@
       </c>
       <c r="E18" s="16">
         <f ca="1">k*u/LN((zr-d)/z0)</f>
-        <v>0.19563996772796899</v>
+        <v>0.20603702292663761</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>209</v>
       </c>
       <c r="H18" s="16">
         <f ca="1">slopesvp+psycho*(rss+rsa)/rsa</f>
-        <v>3.0969672463751028</v>
+        <v>3.3721426523554943</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12076,14 +12703,14 @@
       </c>
       <c r="E19" s="16">
         <f ca="1">(ustar/k)*LN((h-d)/z0)</f>
-        <v>0.49818229988617296</v>
+        <v>0.52465761027938629</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>210</v>
       </c>
       <c r="H19" s="16">
         <f ca="1">(H17/H18)</f>
-        <v>38.478775344287946</v>
+        <v>83.863942555087789</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12092,13 +12719,13 @@
       </c>
       <c r="E20" s="16">
         <f ca="1">k*ustar*h</f>
-        <v>7.8255987091187598E-2</v>
+        <v>8.2414809170655051E-2</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>214</v>
       </c>
       <c r="H20" s="16">
-        <v>34.766982187826784</v>
+        <v>168.87249937589107</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -12107,7 +12734,7 @@
       </c>
       <c r="H21" s="16">
         <f>H20*2*3600/2454000</f>
-        <v>0.10200581571000523</v>
+        <v>0.49546943582168523</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -12121,14 +12748,14 @@
       </c>
       <c r="E23" s="16">
         <f ca="1">(h*EXP(nK))/(nK*Kh)</f>
-        <v>47.210803758187666</v>
+        <v>44.8284487538535</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>212</v>
       </c>
       <c r="H23" s="16">
         <f ca="1">slopesvp*Ac+pcp*vpd0/rca</f>
-        <v>204.19551022816424</v>
+        <v>481.52037769594767</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -12144,7 +12771,7 @@
       </c>
       <c r="H24" s="16">
         <f ca="1">slopesvp+psycho*(rcs+rca)/rca</f>
-        <v>5.6814758987934502</v>
+        <v>5.2021267603701782</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12160,7 +12787,7 @@
       </c>
       <c r="H25" s="16">
         <f ca="1">H23/H24</f>
-        <v>35.940574925527422</v>
+        <v>92.562215393168003</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12169,13 +12796,13 @@
       </c>
       <c r="E26" s="16">
         <f ca="1">E23*(E24-E25)</f>
-        <v>36.713519944298426</v>
+        <v>34.860879637346379</v>
       </c>
       <c r="G26" s="27" t="s">
         <v>215</v>
       </c>
       <c r="H26" s="16">
-        <v>202.1030589229951</v>
+        <v>223.70033620280168</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -12184,7 +12811,7 @@
       </c>
       <c r="H27" s="16">
         <f>H26*2*3600/2454000</f>
-        <v>0.59296741004301745</v>
+        <v>0.65633350475149643</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -12193,7 +12820,7 @@
       </c>
       <c r="E28" s="16">
         <f ca="1">LN((zr-d)/(h-d))/(k*ustar)</f>
-        <v>16.984463383372439</v>
+        <v>16.127392159917779</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -12202,14 +12829,14 @@
       </c>
       <c r="E29" s="16">
         <f ca="1">1/(nK*k*ustar)</f>
-        <v>6.3892874984424672</v>
+        <v>6.06687080916074</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>218</v>
       </c>
       <c r="H29" s="16">
         <f>PETs+PETc</f>
-        <v>0.69497322575302267</v>
+        <v>1.1518029405731816</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -12227,7 +12854,7 @@
       </c>
       <c r="E31" s="16">
         <f ca="1">E28+E29*E30</f>
-        <v>20.716279993863154</v>
+        <v>19.670893569870987</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>166</v>
@@ -12239,7 +12866,7 @@
       </c>
       <c r="H32" s="16">
         <f ca="1">psycho*As*(rss+rsa)-pcp*vpd0</f>
-        <v>1399.6610614005581</v>
+        <v>4353.4354982567556</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.2">
@@ -12255,7 +12882,7 @@
       </c>
       <c r="H33" s="16">
         <f ca="1">slopesvp*rsa+psycho*(rss+rsa)</f>
-        <v>113.70056876663132</v>
+        <v>117.55585912372685</v>
       </c>
     </row>
     <row r="34" spans="4:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12264,14 +12891,14 @@
       </c>
       <c r="E34" s="16">
         <f ca="1">SQRT(E19/leafwidth)</f>
-        <v>2.495451612149024</v>
+        <v>2.5609022098651733</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>222</v>
       </c>
       <c r="H34" s="16">
         <f ca="1">H32/H33</f>
-        <v>12.310062091891036</v>
+        <v>37.032909552171198</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.2">
@@ -12280,7 +12907,7 @@
       </c>
       <c r="E35" s="16">
         <f ca="1">nu/(E33*E34)</f>
-        <v>35.219114006537268</v>
+        <v>34.318996831472454</v>
       </c>
       <c r="G35" s="27"/>
     </row>
@@ -12290,7 +12917,7 @@
       </c>
       <c r="H36" s="16">
         <f ca="1">psycho*Ac*(rcs+rca)-pcp*vpd0</f>
-        <v>13999.081095779264</v>
+        <v>28480.375440039945</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.2">
@@ -12299,14 +12926,14 @@
       </c>
       <c r="E37" s="16">
         <f ca="1">MAX(0.1,It*0.5)</f>
-        <v>124.78263863817044</v>
+        <v>269.83604767528203</v>
       </c>
       <c r="G37" s="27" t="s">
         <v>224</v>
       </c>
       <c r="H37" s="16">
         <f ca="1">slopesvp*rca+psycho*(rcs+rca)</f>
-        <v>200.09654740500031</v>
+        <v>178.53177180606221</v>
       </c>
     </row>
     <row r="38" spans="4:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12315,14 +12942,14 @@
       </c>
       <c r="E38" s="16">
         <f ca="1">(stom_a1+E37)/(stom_a2*E37)</f>
-        <v>282.07872594919638</v>
+        <v>237.95638161853421</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>225</v>
       </c>
       <c r="H38" s="16">
         <f ca="1">H36/H37</f>
-        <v>69.961632408603137</v>
+        <v>159.52552955659888</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.2">
@@ -12331,7 +12958,7 @@
       </c>
       <c r="E39" s="16">
         <f ca="1">IF(L&lt;=0.5*Lmax,rst/L,rst/(0.5*Lmax))</f>
-        <v>188.05248396613092</v>
+        <v>158.63758774568947</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.2">
@@ -12350,7 +12977,7 @@
       </c>
       <c r="E42" s="16">
         <f>E41*EXP(-(1/B13)*E6/E5)</f>
-        <v>51.827595069044058</v>
+        <v>64.189741550438896</v>
       </c>
     </row>
   </sheetData>
@@ -12429,15 +13056,15 @@
         <v>275</v>
       </c>
       <c r="H2" s="16">
-        <f>[1]!interpolate(matric_Hm,matric_vwc,150)</f>
+        <f>[2]!interpolate(matric_Hm,matric_vwc,150)</f>
         <v>0.12</v>
       </c>
       <c r="I2" s="16">
-        <f>[1]!interpolate(matric_Hm,matric_vwc,150)</f>
+        <f>[2]!interpolate(matric_Hm,matric_vwc,150)</f>
         <v>0.12</v>
       </c>
       <c r="J2" s="16">
-        <f>[1]!interpolate(matric_Hm,matric_vwc,150)</f>
+        <f>[2]!interpolate(matric_Hm,matric_vwc,150)</f>
         <v>0.12</v>
       </c>
     </row>
@@ -12452,15 +13079,15 @@
         <v>235</v>
       </c>
       <c r="H3" s="16">
-        <f>[1]!interpolate(matric_Hm,matric_vwc,0)</f>
+        <f>[2]!interpolate(matric_Hm,matric_vwc,0)</f>
         <v>0.39</v>
       </c>
       <c r="I3" s="16">
-        <f>[1]!interpolate(matric_Hm,matric_vwc,0)</f>
+        <f>[2]!interpolate(matric_Hm,matric_vwc,0)</f>
         <v>0.39</v>
       </c>
       <c r="J3" s="16">
-        <f>[1]!interpolate(matric_Hm,matric_vwc,0)</f>
+        <f>[2]!interpolate(matric_Hm,matric_vwc,0)</f>
         <v>0.39</v>
       </c>
     </row>
@@ -12487,7 +13114,7 @@
       </c>
       <c r="E5" s="16">
         <f>1/(1+(3.6073*H9/H3)^-9.3172)</f>
-        <v>0.99993139281271592</v>
+        <v>0.99988975125665225</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>232</v>
@@ -12511,7 +13138,7 @@
       </c>
       <c r="E6" s="16">
         <f>(PETs*E5)*0.75</f>
-        <v>7.6499113033427074E-2</v>
+        <v>0.37156110820426402</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>231</v>
@@ -12554,13 +13181,13 @@
         <v>270</v>
       </c>
       <c r="H8" s="16">
-        <v>6.0504106942761497</v>
+        <v>5.7500660620342394</v>
       </c>
       <c r="I8" s="16">
-        <v>150.30228221743954</v>
+        <v>143.30285874427474</v>
       </c>
       <c r="J8" s="16">
-        <v>175.49050473177411</v>
+        <v>180.08629568703486</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -12576,15 +13203,15 @@
       </c>
       <c r="H9" s="16">
         <f>MAX(0.01,MIN(H3,(H8/1000)/H4))</f>
-        <v>0.30252053471380747</v>
+        <v>0.28750330310171196</v>
       </c>
       <c r="I9" s="16">
         <f>MAX(0.01,MIN(I3,(I8/1000)/I4))</f>
-        <v>0.3267440917770425</v>
+        <v>0.31152795379190157</v>
       </c>
       <c r="J9" s="16">
         <f>MAX(0.01,MIN(J3,(J8/1000)/J4))</f>
-        <v>0.33748173986879637</v>
+        <v>0.34631979939814395</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12599,16 +13226,16 @@
         <v>268</v>
       </c>
       <c r="H10" s="16">
-        <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,H9)</f>
-        <v>4.8618741152966232</v>
+        <f>[2]!interpolate(hydraulic_vwc,hydraulic_K,H9)</f>
+        <v>3.8049012855108928</v>
       </c>
       <c r="I10" s="16">
-        <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,I9)</f>
-        <v>12.122171285676659</v>
+        <f>[2]!interpolate(hydraulic_vwc,hydraulic_K,I9)</f>
+        <v>5.4958522996891981</v>
       </c>
       <c r="J10" s="16">
-        <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,J9)</f>
-        <v>16.869564516794615</v>
+        <f>[2]!interpolate(hydraulic_vwc,hydraulic_K,J9)</f>
+        <v>20.777100285084906</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12623,16 +13250,16 @@
         <v>237</v>
       </c>
       <c r="H11" s="16">
-        <f>[1]!interpolate(matric_vwc,matric_Hm,H9)</f>
-        <v>0.43739732643096257</v>
+        <f>[2]!interpolate(matric_vwc,matric_Hm,H9)</f>
+        <v>0.62483484491440155</v>
       </c>
       <c r="I11" s="16">
-        <f>[1]!interpolate(matric_vwc,matric_Hm,I9)</f>
-        <v>0.31627954111478745</v>
+        <f>[2]!interpolate(matric_vwc,matric_Hm,I9)</f>
+        <v>0.39236023104049211</v>
       </c>
       <c r="J11" s="16">
-        <f>[1]!interpolate(matric_vwc,matric_Hm,J9)</f>
-        <v>0.2625913006560181</v>
+        <f>[2]!interpolate(matric_vwc,matric_Hm,J9)</f>
+        <v>0.21840100300928025</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12641,7 +13268,7 @@
       </c>
       <c r="E12" s="16">
         <f>SUM(H16:J16)/droot</f>
-        <v>0.32512918797282681</v>
+        <v>0.30992631041255558</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>238</v>
@@ -12672,15 +13299,15 @@
       </c>
       <c r="H13" s="16">
         <f>H11+H12</f>
-        <v>0.44739732643096258</v>
+        <v>0.63483484491440156</v>
       </c>
       <c r="I13" s="16">
         <f>I11+I12</f>
-        <v>0.5662795411147874</v>
+        <v>0.64236023104049211</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" ref="J13" si="0">J11+J12</f>
-        <v>1.0025913006560181</v>
+        <v>0.95840100300928022</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12689,18 +13316,18 @@
       </c>
       <c r="E14" s="16">
         <f>(PETc*E13)</f>
-        <v>0.59296741004301745</v>
+        <v>0.65633350475149643</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>267</v>
       </c>
       <c r="I14" s="16">
         <f>(H10*H4+I10*I4)/(I4+H4)</f>
-        <v>11.819658903577491</v>
+        <v>5.4253960074317682</v>
       </c>
       <c r="J14" s="16">
         <f>(I10*I4+J10*J4)/(J4+I4)</f>
-        <v>14.641196265453534</v>
+        <v>13.60426959806243</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12729,11 +13356,11 @@
       </c>
       <c r="H16" s="16">
         <f>MAX(0,H9*(H4-H15))</f>
-        <v>6.0504106942761496E-3</v>
+        <v>5.7500660620342396E-3</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" ref="I16:J16" si="1">MAX(0,I9*(I4-I15))</f>
-        <v>9.1488345697571888E-2</v>
+        <v>8.7227827061732433E-2</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="1"/>
@@ -12746,14 +13373,14 @@
       </c>
       <c r="E17" s="16">
         <f ca="1">(1-MIN(m,L/Lmax*m))*Pg</f>
-        <v>174.6</v>
+        <v>0</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>248</v>
       </c>
       <c r="H17" s="16">
         <f>E6</f>
-        <v>7.6499113033427074E-2</v>
+        <v>0.37156110820426402</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12796,11 +13423,11 @@
       </c>
       <c r="H20" s="16">
         <f>H19*AETc</f>
-        <v>6.9047760636120253E-2</v>
+        <v>7.6426390331063132E-2</v>
       </c>
       <c r="I20" s="16">
         <f>(I19-H19)*AETc</f>
-        <v>0.52391964940689717</v>
+        <v>0.5799071144204333</v>
       </c>
       <c r="J20" s="16">
         <f>(J19-I19)*AETc</f>
@@ -12813,15 +13440,15 @@
       </c>
       <c r="H21" s="16">
         <f ca="1">Pn-H17-H20</f>
-        <v>174.45445312633043</v>
+        <v>-0.44798749853532716</v>
       </c>
       <c r="I21" s="16">
         <f>I14*(I13-H13)/(I6-H6)-I20</f>
-        <v>5.330860464195939</v>
+        <v>-0.40978961507512457</v>
       </c>
       <c r="J21" s="16">
         <f>J14*(J13-I13)/(J6-I6)-J20</f>
-        <v>13.036992049731689</v>
+        <v>8.7744976853942145</v>
       </c>
     </row>
     <row r="22" spans="4:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12830,15 +13457,15 @@
       </c>
       <c r="H22" s="28">
         <f ca="1">H21-I21</f>
-        <v>169.12359266213448</v>
+        <v>-3.8197883460202586E-2</v>
       </c>
       <c r="I22" s="28">
         <f>I21-J21</f>
-        <v>-7.7061315855357497</v>
+        <v>-9.1842873004693395</v>
       </c>
       <c r="J22" s="28">
         <f>J21-J14</f>
-        <v>-1.604204215721845</v>
+        <v>-4.8297719126682157</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.2">
@@ -12959,7 +13586,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13126,7 +13753,7 @@
       <c r="D12" s="16">
         <v>0.39</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="61">
         <f xml:space="preserve"> 314.2</f>
         <v>314.2</v>
       </c>
@@ -13160,7 +13787,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13201,7 +13828,7 @@
       </c>
       <c r="E2" s="1">
         <f>B2+INT(_step)</f>
-        <v>43029</v>
+        <v>43035</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>228</v>
@@ -13212,19 +13839,19 @@
       </c>
       <c r="I2">
         <f ca="1">assim</f>
-        <v>22.928935963611814</v>
+        <v>38.587208953331903</v>
       </c>
       <c r="J2">
         <f>Photosynthesis!J20</f>
-        <v>150.55154298714098</v>
+        <v>276.41575952532946</v>
       </c>
       <c r="K2">
         <f ca="1">tsr</f>
-        <v>6.8457286226508955</v>
+        <v>6.7662239983839356</v>
       </c>
       <c r="L2">
         <f ca="1">tss</f>
-        <v>17.154271377349104</v>
+        <v>17.233776001616064</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -13233,7 +13860,7 @@
       </c>
       <c r="E3" s="1">
         <f>date-DATE(YEAR(date),9,22)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>228</v>
@@ -13244,11 +13871,11 @@
       </c>
       <c r="I3">
         <f ca="1">LETs</f>
-        <v>38.478775344287946</v>
+        <v>83.863942555087789</v>
       </c>
       <c r="J3">
         <f>ET!H20</f>
-        <v>34.766982187826784</v>
+        <v>168.87249937589107</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -13276,11 +13903,11 @@
       </c>
       <c r="I4">
         <f ca="1">LETc</f>
-        <v>35.940574925527422</v>
+        <v>92.562215393168003</v>
       </c>
       <c r="J4">
         <f>ET!H26</f>
-        <v>202.1030589229951</v>
+        <v>223.70033620280168</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -13294,18 +13921,18 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>255</v>
       </c>
       <c r="H5">
         <f>Water!H8:J8</f>
-        <v>6.0504106942761497</v>
+        <v>5.7500660620342394</v>
       </c>
       <c r="I5">
         <f>Water!H22:J22</f>
-        <v>-7.7061315855357497</v>
+        <v>-9.1842873004693395</v>
       </c>
       <c r="J5">
         <v>100</v>
@@ -13325,7 +13952,7 @@
         <v>86</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -13348,7 +13975,7 @@
       </c>
       <c r="H21">
         <f>Water!H8:J8</f>
-        <v>6.0504106942761497</v>
+        <v>5.7500660620342394</v>
       </c>
       <c r="I21">
         <f>Water!H7:J7</f>
@@ -13364,10 +13991,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13375,23 +14002,23 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="6" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>88</v>
       </c>
@@ -13410,39 +14037,40 @@
       <c r="F2" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>doy</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <f ca="1">Pg</f>
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>Water!H9</f>
-        <v>0.30252053471380747</v>
+        <v>0.28750330310171196</v>
       </c>
       <c r="D3">
         <f>Water!I9</f>
-        <v>0.3267440917770425</v>
+        <v>0.31152795379190157</v>
       </c>
       <c r="E3">
         <f>Water!J9</f>
-        <v>0.33748173986879637</v>
+        <v>0.34631979939814395</v>
       </c>
       <c r="F3">
         <f>SUM(Water!H8:J8)</f>
-        <v>331.84319764348982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>329.13922049334383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C4" t="b">
         <v>0</v>
       </c>
@@ -13456,38 +14084,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="H7" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="I7" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="J7" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="K7" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="L7" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="L7" s="61" t="s">
+      <c r="M7" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -13506,35 +14135,39 @@
       <c r="F8" s="3">
         <v>263.5</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="3">
+        <f>F8</f>
+        <v>263.5</v>
+      </c>
+      <c r="H8" s="57">
         <v>26.354107142857298</v>
       </c>
-      <c r="H8" s="3">
-        <f>G8*10</f>
+      <c r="I8" s="3">
+        <f t="shared" ref="I8:I42" si="0">H8*10</f>
         <v>263.54107142857299</v>
       </c>
-      <c r="I8" s="62">
-        <f>(ABS(H8-F8)/F8)</f>
+      <c r="J8" s="59">
+        <f>(ABS(I8-G8)/G8)</f>
         <v>1.5586879913848559E-4</v>
       </c>
-      <c r="J8" s="15">
-        <f>H8-F8</f>
+      <c r="K8" s="15">
+        <f>I8-G8</f>
         <v>4.1071428572990953E-2</v>
       </c>
-      <c r="K8" s="63">
-        <f>J8^2</f>
+      <c r="L8" s="60">
+        <f>K8^2</f>
         <v>1.6868622450262978E-3</v>
       </c>
-      <c r="L8">
-        <f>SQRT(SUM(K8:K36)/29)</f>
-        <v>14.459566656831244</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="M8">
+        <f>SQRT(SUM(L8:L42)/35)</f>
+        <v>25.892691789538599</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -13553,31 +14186,35 @@
       <c r="F9" s="3">
         <v>266.60559232224136</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="3">
+        <f t="shared" ref="G9:G42" si="1">F9</f>
+        <v>266.60559232224136</v>
+      </c>
+      <c r="H9" s="53">
         <v>26.273270365997799</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" ref="H9:H37" si="0">G9*10</f>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
         <v>262.73270365997797</v>
       </c>
-      <c r="I9" s="62">
-        <f t="shared" ref="I9:I37" si="1">(ABS(H9-F9)/F9)</f>
+      <c r="J9" s="59">
+        <f t="shared" ref="J9:J42" si="2">(ABS(I9-G9)/G9)</f>
         <v>1.4526659506760464E-2</v>
       </c>
-      <c r="J9" s="15">
-        <f t="shared" ref="J9:J26" si="2">H9-F9</f>
+      <c r="K9" s="15">
+        <f t="shared" ref="K9:K42" si="3">I9-G9</f>
         <v>-3.8728886622633922</v>
       </c>
-      <c r="K9" s="63">
-        <f t="shared" ref="K9:K37" si="3">J9^2</f>
+      <c r="L9" s="60">
+        <f t="shared" ref="L9:L42" si="4">K9^2</f>
         <v>14.999266590288327</v>
       </c>
-      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -13596,31 +14233,35 @@
       <c r="F10" s="3">
         <v>264.71839322753686</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>264.71839322753686</v>
+      </c>
+      <c r="H10" s="53">
         <v>26.247820965842383</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>262.47820965842385</v>
       </c>
-      <c r="I10" s="62">
-        <f t="shared" si="1"/>
+      <c r="J10" s="59">
+        <f t="shared" si="2"/>
         <v>8.4625157390838361E-3</v>
       </c>
-      <c r="J10" s="15">
-        <f t="shared" si="2"/>
+      <c r="K10" s="15">
+        <f t="shared" si="3"/>
         <v>-2.2401835691130145</v>
       </c>
-      <c r="K10" s="63">
-        <f t="shared" si="3"/>
+      <c r="L10" s="60">
+        <f t="shared" si="4"/>
         <v>5.0184224233239245</v>
       </c>
-      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -13639,31 +14280,35 @@
       <c r="F11" s="3">
         <v>262.08981555636637</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>262.08981555636637</v>
+      </c>
+      <c r="H11" s="53">
         <v>26.155535924617304</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>261.55535924617305</v>
       </c>
-      <c r="I11" s="62">
-        <f t="shared" si="1"/>
+      <c r="J11" s="59">
+        <f t="shared" si="2"/>
         <v>2.0392105242959258E-3</v>
       </c>
-      <c r="J11" s="15">
-        <f t="shared" si="2"/>
+      <c r="K11" s="15">
+        <f t="shared" si="3"/>
         <v>-0.53445631019332041</v>
       </c>
-      <c r="K11" s="63">
-        <f t="shared" si="3"/>
+      <c r="L11" s="60">
+        <f t="shared" si="4"/>
         <v>0.28564354750545873</v>
       </c>
-      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -13682,31 +14327,35 @@
       <c r="F12" s="3">
         <v>259.6412859287002</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>259.6412859287002</v>
+      </c>
+      <c r="H12" s="53">
         <v>26.130672169811412</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>261.30672169811413</v>
       </c>
-      <c r="I12" s="62">
-        <f t="shared" si="1"/>
+      <c r="J12" s="59">
+        <f t="shared" si="2"/>
         <v>6.4143719033623783E-3</v>
       </c>
-      <c r="J12" s="15">
-        <f t="shared" si="2"/>
+      <c r="K12" s="15">
+        <f t="shared" si="3"/>
         <v>1.6654357694139321</v>
       </c>
-      <c r="K12" s="63">
-        <f t="shared" si="3"/>
+      <c r="L12" s="60">
+        <f t="shared" si="4"/>
         <v>2.7736763020433761</v>
       </c>
-      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -13725,31 +14374,35 @@
       <c r="F13" s="3">
         <v>257.32663616400765</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>257.32663616400765</v>
+      </c>
+      <c r="H13" s="53">
         <v>26.091453692848845</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>260.91453692848847</v>
       </c>
-      <c r="I13" s="62">
-        <f t="shared" si="1"/>
+      <c r="J13" s="59">
+        <f t="shared" si="2"/>
         <v>1.3942982420965023E-2</v>
       </c>
-      <c r="J13" s="15">
-        <f t="shared" si="2"/>
+      <c r="K13" s="15">
+        <f t="shared" si="3"/>
         <v>3.5879007644808212</v>
       </c>
-      <c r="K13" s="63">
-        <f t="shared" si="3"/>
+      <c r="L13" s="60">
+        <f t="shared" si="4"/>
         <v>12.873031895762061</v>
       </c>
-      <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
         <v>6</v>
       </c>
@@ -13768,31 +14421,35 @@
       <c r="F14" s="3">
         <v>273.73566914166952</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>273.73566914166952</v>
+      </c>
+      <c r="H14" s="53">
         <v>27.064112149532793</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>270.64112149532792</v>
       </c>
-      <c r="I14" s="62">
-        <f t="shared" si="1"/>
+      <c r="J14" s="59">
+        <f t="shared" si="2"/>
         <v>1.1304875451726532E-2</v>
       </c>
-      <c r="J14" s="15">
-        <f t="shared" si="2"/>
+      <c r="K14" s="15">
+        <f t="shared" si="3"/>
         <v>-3.0945476463415957</v>
       </c>
-      <c r="K14" s="63">
-        <f t="shared" si="3"/>
+      <c r="L14" s="60">
+        <f t="shared" si="4"/>
         <v>9.5762251354783103</v>
       </c>
-      <c r="M14" s="39"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="39"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>7</v>
       </c>
@@ -13811,31 +14468,35 @@
       <c r="F15" s="3">
         <v>273.69147013115128</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>273.69147013115128</v>
+      </c>
+      <c r="H15" s="53">
         <v>27.079415204678142</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>270.79415204678139</v>
       </c>
-      <c r="I15" s="62">
-        <f t="shared" si="1"/>
+      <c r="J15" s="59">
+        <f t="shared" si="2"/>
         <v>1.0586073738364987E-2</v>
       </c>
-      <c r="J15" s="15">
-        <f t="shared" si="2"/>
+      <c r="K15" s="15">
+        <f t="shared" si="3"/>
         <v>-2.8973180843698856</v>
       </c>
-      <c r="K15" s="63">
-        <f t="shared" si="3"/>
+      <c r="L15" s="60">
+        <f t="shared" si="4"/>
         <v>8.3944520820167838</v>
       </c>
-      <c r="M15" s="39"/>
       <c r="N15" s="39"/>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q15" s="39"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>8</v>
       </c>
@@ -13854,31 +14515,35 @@
       <c r="F16" s="3">
         <v>270.52485260875841</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>270.52485260875841</v>
+      </c>
+      <c r="H16" s="53">
         <v>26.87383838383834</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>268.73838383838341</v>
       </c>
-      <c r="I16" s="62">
-        <f t="shared" si="1"/>
+      <c r="J16" s="59">
+        <f t="shared" si="2"/>
         <v>6.6037140512137816E-3</v>
       </c>
-      <c r="J16" s="15">
-        <f t="shared" si="2"/>
+      <c r="K16" s="15">
+        <f t="shared" si="3"/>
         <v>-1.7864687703749951</v>
       </c>
-      <c r="K16" s="63">
-        <f t="shared" si="3"/>
+      <c r="L16" s="60">
+        <f t="shared" si="4"/>
         <v>3.191470667525147</v>
       </c>
-      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>9</v>
       </c>
@@ -13897,31 +14562,35 @@
       <c r="F17" s="3">
         <v>267.64543796645648</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>267.64543796645648</v>
+      </c>
+      <c r="H17" s="53">
         <v>26.659346733668354</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>266.59346733668355</v>
       </c>
-      <c r="I17" s="62">
-        <f t="shared" si="1"/>
+      <c r="J17" s="59">
+        <f t="shared" si="2"/>
         <v>3.9304635183237463E-3</v>
       </c>
-      <c r="J17" s="15">
-        <f t="shared" si="2"/>
+      <c r="K17" s="15">
+        <f t="shared" si="3"/>
         <v>-1.0519706297729385</v>
       </c>
-      <c r="K17" s="63">
-        <f t="shared" si="3"/>
+      <c r="L17" s="60">
+        <f t="shared" si="4"/>
         <v>1.1066422059048728</v>
       </c>
-      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>10</v>
       </c>
@@ -13940,31 +14609,35 @@
       <c r="F18" s="3">
         <v>264.93537865759492</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>264.93537865759492</v>
+      </c>
+      <c r="H18" s="53">
         <v>28.415022321428484</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>284.15022321428484</v>
       </c>
-      <c r="I18" s="62">
-        <f t="shared" si="1"/>
+      <c r="J18" s="59">
+        <f t="shared" si="2"/>
         <v>7.2526533277850233E-2</v>
       </c>
-      <c r="J18" s="15">
-        <f t="shared" si="2"/>
+      <c r="K18" s="15">
+        <f t="shared" si="3"/>
         <v>19.214844556689911</v>
       </c>
-      <c r="K18" s="63">
-        <f t="shared" si="3"/>
+      <c r="L18" s="60">
+        <f t="shared" si="4"/>
         <v>369.21025133775589</v>
       </c>
-      <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>11</v>
       </c>
@@ -13983,27 +14656,31 @@
       <c r="F19">
         <v>300.78798664369174</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>300.78798664369174</v>
+      </c>
+      <c r="H19" s="53">
         <v>30.714938900203716</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <f t="shared" si="0"/>
         <v>307.14938900203714</v>
       </c>
-      <c r="I19" s="62">
-        <f t="shared" si="1"/>
+      <c r="J19" s="59">
+        <f t="shared" si="2"/>
         <v>2.1149123770960336E-2</v>
       </c>
-      <c r="J19" s="15">
-        <f t="shared" si="2"/>
+      <c r="K19" s="15">
+        <f t="shared" si="3"/>
         <v>6.3614023583454014</v>
       </c>
-      <c r="K19" s="63">
-        <f t="shared" si="3"/>
+      <c r="L19" s="60">
+        <f t="shared" si="4"/>
         <v>40.467439964762434</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>12</v>
       </c>
@@ -14022,27 +14699,31 @@
       <c r="F20">
         <v>298.88086325481743</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>298.88086325481743</v>
+      </c>
+      <c r="H20" s="53">
         <v>29.206933614330836</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <f t="shared" si="0"/>
         <v>292.06933614330836</v>
       </c>
-      <c r="I20" s="62">
-        <f t="shared" si="1"/>
+      <c r="J20" s="59">
+        <f t="shared" si="2"/>
         <v>2.2790107862147562E-2</v>
       </c>
-      <c r="J20" s="15">
-        <f t="shared" si="2"/>
+      <c r="K20" s="15">
+        <f t="shared" si="3"/>
         <v>-6.811527111509065</v>
       </c>
-      <c r="K20" s="63">
-        <f t="shared" si="3"/>
+      <c r="L20" s="60">
+        <f t="shared" si="4"/>
         <v>46.396901590823028</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13</v>
       </c>
@@ -14061,27 +14742,31 @@
       <c r="F21">
         <v>294.01748157488834</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>294.01748157488834</v>
+      </c>
+      <c r="H21" s="53">
         <v>28.585930232558329</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <f t="shared" si="0"/>
         <v>285.85930232558331</v>
       </c>
-      <c r="I21" s="62">
-        <f t="shared" si="1"/>
+      <c r="J21" s="59">
+        <f t="shared" si="2"/>
         <v>2.7747259127607605E-2</v>
       </c>
-      <c r="J21" s="15">
-        <f t="shared" si="2"/>
+      <c r="K21" s="15">
+        <f t="shared" si="3"/>
         <v>-8.1581792493050216</v>
       </c>
-      <c r="K21" s="63">
-        <f t="shared" si="3"/>
+      <c r="L21" s="60">
+        <f t="shared" si="4"/>
         <v>66.555888663791052</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>14</v>
       </c>
@@ -14100,27 +14785,31 @@
       <c r="F22">
         <v>295.95997959163515</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>295.95997959163515</v>
+      </c>
+      <c r="H22" s="53">
         <v>30.62329648241213</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <f t="shared" si="0"/>
         <v>306.23296482412127</v>
       </c>
-      <c r="I22" s="62">
-        <f t="shared" si="1"/>
+      <c r="J22" s="59">
+        <f t="shared" si="2"/>
         <v>3.4710724222446428E-2</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" si="2"/>
+      <c r="K22" s="15">
+        <f t="shared" si="3"/>
         <v>10.272985232486121</v>
       </c>
-      <c r="K22" s="63">
-        <f t="shared" si="3"/>
+      <c r="L22" s="60">
+        <f t="shared" si="4"/>
         <v>105.53422558687792</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>15</v>
       </c>
@@ -14139,27 +14828,31 @@
       <c r="F23">
         <v>332.25342951012317</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>332.25342951012317</v>
+      </c>
+      <c r="H23" s="53">
         <v>32.222954545454598</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <f t="shared" si="0"/>
         <v>322.22954545454598</v>
       </c>
-      <c r="I23" s="62">
-        <f t="shared" si="1"/>
+      <c r="J23" s="59">
+        <f t="shared" si="2"/>
         <v>3.0169392292974887E-2</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
+      <c r="K23" s="15">
+        <f t="shared" si="3"/>
         <v>-10.023884055577184</v>
       </c>
-      <c r="K23" s="63">
-        <f t="shared" si="3"/>
+      <c r="L23" s="60">
+        <f t="shared" si="4"/>
         <v>100.47825155965451</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>16</v>
       </c>
@@ -14178,27 +14871,31 @@
       <c r="F24">
         <v>321.21720394764105</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>321.21720394764105</v>
+      </c>
+      <c r="H24" s="53">
         <v>30.610346232179136</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <f t="shared" si="0"/>
         <v>306.10346232179137</v>
       </c>
-      <c r="I24" s="62">
-        <f t="shared" si="1"/>
+      <c r="J24" s="59">
+        <f t="shared" si="2"/>
         <v>4.7051469971431698E-2</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
+      <c r="K24" s="15">
+        <f t="shared" si="3"/>
         <v>-15.113741625849684</v>
       </c>
-      <c r="K24" s="63">
-        <f t="shared" si="3"/>
+      <c r="L24" s="60">
+        <f t="shared" si="4"/>
         <v>228.42518593294145</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17</v>
       </c>
@@ -14217,27 +14914,31 @@
       <c r="F25">
         <v>312.6350086106425</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>312.6350086106425</v>
+      </c>
+      <c r="H25" s="53">
         <v>30.109012605041972</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <f t="shared" si="0"/>
         <v>301.09012605041971</v>
       </c>
-      <c r="I25" s="62">
-        <f t="shared" si="1"/>
+      <c r="J25" s="59">
+        <f t="shared" si="2"/>
         <v>3.6927670421583701E-2</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
+      <c r="K25" s="15">
+        <f t="shared" si="3"/>
         <v>-11.544882560222788</v>
       </c>
-      <c r="K25" s="63">
-        <f t="shared" si="3"/>
+      <c r="L25" s="60">
+        <f t="shared" si="4"/>
         <v>133.2843133293363</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>18</v>
       </c>
@@ -14256,27 +14957,31 @@
       <c r="F26">
         <v>308.37167592361504</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>308.37167592361504</v>
+      </c>
+      <c r="H26" s="53">
         <v>29.602070707070748</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>296.02070707070749</v>
       </c>
-      <c r="I26" s="62">
-        <f t="shared" si="1"/>
+      <c r="J26" s="59">
+        <f t="shared" si="2"/>
         <v>4.00522156125874E-2</v>
       </c>
-      <c r="J26" s="15">
-        <f t="shared" si="2"/>
+      <c r="K26" s="15">
+        <f t="shared" si="3"/>
         <v>-12.350968852907556</v>
       </c>
-      <c r="K26" s="63">
-        <f t="shared" si="3"/>
+      <c r="L26" s="60">
+        <f t="shared" si="4"/>
         <v>152.54643160549259</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>19</v>
       </c>
@@ -14295,27 +15000,31 @@
       <c r="F27">
         <v>302.16084125515818</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>302.16084125515818</v>
+      </c>
+      <c r="H27" s="53">
         <v>29.36105263157847</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <f t="shared" si="0"/>
         <v>293.61052631578468</v>
       </c>
-      <c r="I27" s="62">
-        <f t="shared" si="1"/>
+      <c r="J27" s="59">
+        <f t="shared" si="2"/>
         <v>2.8297230388477847E-2</v>
       </c>
-      <c r="J27" s="15">
-        <f>H27-F27</f>
+      <c r="K27" s="15">
+        <f t="shared" si="3"/>
         <v>-8.550314939373493</v>
       </c>
-      <c r="K27" s="63">
-        <f t="shared" si="3"/>
+      <c r="L27" s="60">
+        <f t="shared" si="4"/>
         <v>73.107885562473541</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20</v>
       </c>
@@ -14334,27 +15043,31 @@
       <c r="F28">
         <v>296.75898529351127</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>296.75898529351127</v>
+      </c>
+      <c r="H28" s="53">
         <v>29.091244813278049</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <f t="shared" si="0"/>
         <v>290.91244813278047</v>
       </c>
-      <c r="I28" s="62">
-        <f t="shared" si="1"/>
+      <c r="J28" s="59">
+        <f t="shared" si="2"/>
         <v>1.9701297856064077E-2</v>
       </c>
-      <c r="J28" s="15">
-        <f t="shared" ref="J28:J37" si="4">H28-F28</f>
+      <c r="K28" s="15">
+        <f t="shared" si="3"/>
         <v>-5.8465371607308043</v>
       </c>
-      <c r="K28" s="63">
-        <f t="shared" si="3"/>
+      <c r="L28" s="60">
+        <f t="shared" si="4"/>
         <v>34.181996771806212</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21</v>
       </c>
@@ -14373,27 +15086,31 @@
       <c r="F29">
         <v>291.8278663204876</v>
       </c>
-      <c r="G29" s="54">
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
+        <v>291.8278663204876</v>
+      </c>
+      <c r="H29" s="53">
         <v>28.736221532091296</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <f t="shared" si="0"/>
         <v>287.36221532091298</v>
       </c>
-      <c r="I29" s="62">
-        <f t="shared" si="1"/>
+      <c r="J29" s="59">
+        <f t="shared" si="2"/>
         <v>1.5302346057214455E-2</v>
       </c>
-      <c r="J29" s="15">
+      <c r="K29" s="15">
+        <f t="shared" si="3"/>
+        <v>-4.4656509995746205</v>
+      </c>
+      <c r="L29" s="60">
         <f t="shared" si="4"/>
-        <v>-4.4656509995746205</v>
-      </c>
-      <c r="K29" s="63">
-        <f t="shared" si="3"/>
         <v>19.942038850001808</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>22</v>
       </c>
@@ -14412,27 +15129,31 @@
       <c r="F30">
         <v>287.5361279689651</v>
       </c>
-      <c r="G30" s="54">
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
+        <v>287.5361279689651</v>
+      </c>
+      <c r="H30" s="53">
         <v>28.294567901234753</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <f t="shared" si="0"/>
         <v>282.94567901234751</v>
       </c>
-      <c r="I30" s="62">
-        <f t="shared" si="1"/>
+      <c r="J30" s="59">
+        <f t="shared" si="2"/>
         <v>1.5964772806264741E-2</v>
       </c>
-      <c r="J30" s="15">
+      <c r="K30" s="15">
+        <f t="shared" si="3"/>
+        <v>-4.5904489566175926</v>
+      </c>
+      <c r="L30" s="60">
         <f t="shared" si="4"/>
-        <v>-4.5904489566175926</v>
-      </c>
-      <c r="K30" s="63">
-        <f t="shared" si="3"/>
         <v>21.072221623311545</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>23</v>
       </c>
@@ -14451,27 +15172,31 @@
       <c r="F31">
         <v>284.49284426233476</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="3">
+        <f t="shared" si="1"/>
+        <v>284.49284426233476</v>
+      </c>
+      <c r="H31" s="53">
         <v>32.810615224191977</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <f t="shared" si="0"/>
         <v>328.10615224191974</v>
       </c>
-      <c r="I31" s="62">
-        <f t="shared" si="1"/>
+      <c r="J31" s="59">
+        <f t="shared" si="2"/>
         <v>0.15330195067883168</v>
       </c>
-      <c r="J31" s="15">
+      <c r="K31" s="15">
+        <f t="shared" si="3"/>
+        <v>43.613307979584988</v>
+      </c>
+      <c r="L31" s="60">
         <f t="shared" si="4"/>
-        <v>43.613307979584988</v>
-      </c>
-      <c r="K31" s="63">
-        <f t="shared" si="3"/>
         <v>1902.1206329221316</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>24</v>
       </c>
@@ -14490,27 +15215,31 @@
       <c r="F32">
         <v>311.55314075720077</v>
       </c>
-      <c r="G32" s="54">
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
+        <v>311.55314075720077</v>
+      </c>
+      <c r="H32" s="53">
         <v>35.124786585365882</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <f t="shared" si="0"/>
         <v>351.24786585365882</v>
       </c>
-      <c r="I32" s="62">
-        <f t="shared" si="1"/>
+      <c r="J32" s="59">
+        <f t="shared" si="2"/>
         <v>0.12740916365016813</v>
       </c>
-      <c r="J32" s="15">
+      <c r="K32" s="15">
+        <f t="shared" si="3"/>
+        <v>39.694725096458058</v>
+      </c>
+      <c r="L32" s="60">
         <f t="shared" si="4"/>
-        <v>39.694725096458058</v>
-      </c>
-      <c r="K32" s="63">
-        <f t="shared" si="3"/>
         <v>1575.6712004833771</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>25</v>
       </c>
@@ -14529,27 +15258,31 @@
       <c r="F33">
         <v>328.91406791125593</v>
       </c>
-      <c r="G33" s="54">
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
+        <v>328.91406791125593</v>
+      </c>
+      <c r="H33" s="53">
         <v>35.361196120689549</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <f t="shared" si="0"/>
         <v>353.6119612068955</v>
       </c>
-      <c r="I33" s="62">
-        <f t="shared" si="1"/>
+      <c r="J33" s="59">
+        <f t="shared" si="2"/>
         <v>7.5089197164723565E-2</v>
       </c>
-      <c r="J33" s="15">
+      <c r="K33" s="15">
+        <f t="shared" si="3"/>
+        <v>24.697893295639574</v>
+      </c>
+      <c r="L33" s="60">
         <f t="shared" si="4"/>
-        <v>24.697893295639574</v>
-      </c>
-      <c r="K33" s="63">
-        <f t="shared" si="3"/>
         <v>609.98593324279818</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>26</v>
       </c>
@@ -14568,27 +15301,31 @@
       <c r="F34">
         <v>333.96443251620917</v>
       </c>
-      <c r="G34" s="54">
+      <c r="G34" s="3">
+        <f t="shared" si="1"/>
+        <v>333.96443251620917</v>
+      </c>
+      <c r="H34" s="53">
         <v>34.058111814345885</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <f t="shared" si="0"/>
         <v>340.58111814345887</v>
       </c>
-      <c r="I34" s="62">
-        <f t="shared" si="1"/>
+      <c r="J34" s="59">
+        <f t="shared" si="2"/>
         <v>1.9812545837283285E-2</v>
       </c>
-      <c r="J34" s="15">
+      <c r="K34" s="15">
+        <f t="shared" si="3"/>
+        <v>6.6166856272496943</v>
+      </c>
+      <c r="L34" s="60">
         <f t="shared" si="4"/>
-        <v>6.6166856272496943</v>
-      </c>
-      <c r="K34" s="63">
-        <f t="shared" si="3"/>
         <v>43.78052868985268</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>27</v>
       </c>
@@ -14607,27 +15344,31 @@
       <c r="F35">
         <v>339.73902634973683</v>
       </c>
-      <c r="G35" s="54">
+      <c r="G35" s="3">
+        <f t="shared" si="1"/>
+        <v>339.73902634973683</v>
+      </c>
+      <c r="H35" s="53">
         <v>36.169025157232795</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <f t="shared" si="0"/>
         <v>361.69025157232795</v>
       </c>
-      <c r="I35" s="62">
-        <f t="shared" si="1"/>
+      <c r="J35" s="59">
+        <f t="shared" si="2"/>
         <v>6.4612021346037288E-2</v>
       </c>
-      <c r="J35" s="15">
+      <c r="K35" s="15">
+        <f t="shared" si="3"/>
+        <v>21.95122522259112</v>
+      </c>
+      <c r="L35" s="60">
         <f t="shared" si="4"/>
-        <v>21.95122522259112</v>
-      </c>
-      <c r="K35" s="63">
-        <f t="shared" si="3"/>
         <v>481.85628877292055</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>28</v>
       </c>
@@ -14646,27 +15387,31 @@
       <c r="F36">
         <v>343.83305912710966</v>
       </c>
-      <c r="G36" s="54">
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
+        <v>343.83305912710966</v>
+      </c>
+      <c r="H36" s="53">
         <v>34.450747368421041</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I36" s="3">
         <f t="shared" si="0"/>
         <v>344.50747368421042</v>
       </c>
-      <c r="I36" s="62">
-        <f t="shared" si="1"/>
+      <c r="J36" s="59">
+        <f t="shared" si="2"/>
         <v>1.9614593163696931E-3</v>
       </c>
-      <c r="J36" s="15">
+      <c r="K36" s="15">
+        <f t="shared" si="3"/>
+        <v>0.6744145571007607</v>
+      </c>
+      <c r="L36" s="60">
         <f t="shared" si="4"/>
-        <v>0.6744145571007607</v>
-      </c>
-      <c r="K36" s="63">
-        <f t="shared" si="3"/>
         <v>0.4548349948294152</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>29</v>
       </c>
@@ -14674,393 +15419,259 @@
         <v>194</v>
       </c>
       <c r="C37">
-        <v>0.3024150260233367</v>
+        <v>0.30252053471380747</v>
       </c>
       <c r="D37">
-        <v>0.32672984070920996</v>
+        <v>0.3267440917770425</v>
       </c>
       <c r="E37">
-        <v>0.33744362386005561</v>
+        <v>0.33748173986879637</v>
       </c>
       <c r="F37">
-        <v>331.81471165393225</v>
-      </c>
-      <c r="G37" s="54">
+        <v>331.84319764348982</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="1"/>
+        <v>331.84319764348982</v>
+      </c>
+      <c r="H37" s="53">
         <v>36.951029106028834</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <f t="shared" si="0"/>
         <v>369.51029106028835</v>
       </c>
-      <c r="I37" s="62">
-        <f t="shared" si="1"/>
-        <v>0.11360430409629001</v>
-      </c>
-      <c r="J37" s="15">
+      <c r="J37" s="59">
+        <f t="shared" si="2"/>
+        <v>0.11350871039178434</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="3"/>
+        <v>37.667093416798537</v>
+      </c>
+      <c r="L37" s="60">
         <f t="shared" si="4"/>
-        <v>37.695579406356103</v>
-      </c>
-      <c r="K37" s="63">
-        <f t="shared" si="3"/>
-        <v>1420.9567067808982</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1418.8099264698276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>30</v>
       </c>
-      <c r="B38" t="e">
-        <v>#N/A</v>
+      <c r="B38">
+        <v>207</v>
       </c>
       <c r="C38">
-        <v>0.12357761986907743</v>
+        <v>0.37167684758092412</v>
       </c>
       <c r="D38">
+        <v>0.36966723300790971</v>
+      </c>
+      <c r="E38">
+        <v>0.37419623637260185</v>
+      </c>
+      <c r="F38">
+        <v>372.06250704900992</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="1"/>
+        <v>372.06250704900992</v>
+      </c>
+      <c r="H38" s="62">
+        <v>36.524633891213441</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="0"/>
+        <v>365.24633891213443</v>
+      </c>
+      <c r="J38" s="59">
+        <f t="shared" si="2"/>
+        <v>1.8319954329549335E-2</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="3"/>
+        <v>-6.8161681368754898</v>
+      </c>
+      <c r="L38" s="60">
+        <f t="shared" si="4"/>
+        <v>46.460148070156684</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>447</v>
+      </c>
+      <c r="C39">
+        <v>0.37007091221453148</v>
+      </c>
+      <c r="D39">
+        <v>0.37251876110312576</v>
+      </c>
+      <c r="E39">
+        <v>0.37240609408119207</v>
+      </c>
+      <c r="F39">
+        <v>372.41121727394841</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="1"/>
+        <v>372.41121727394841</v>
+      </c>
+      <c r="H39" s="62">
+        <v>34.987000000000101</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="0"/>
+        <v>349.87000000000103</v>
+      </c>
+      <c r="J39" s="59">
+        <f t="shared" si="2"/>
+        <v>6.0527761325099662E-2</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" si="3"/>
+        <v>-22.541217273947382</v>
+      </c>
+      <c r="L39" s="60">
+        <f t="shared" si="4"/>
+        <v>508.10647619130384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0.39</v>
       </c>
-      <c r="E38">
-        <v>0.37766680326531049</v>
-      </c>
-      <c r="F38">
-        <v>383.46880334986236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="G39" s="48"/>
+      <c r="D40">
+        <v>0.39</v>
+      </c>
+      <c r="E40">
+        <v>0.38993117257797028</v>
+      </c>
+      <c r="F40">
+        <v>482.91761282722814</v>
+      </c>
+      <c r="G40" s="3">
+        <f>F40</f>
+        <v>482.91761282722814</v>
+      </c>
+      <c r="H40" s="62">
+        <v>36.182441025640991</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="0"/>
+        <v>361.82441025640992</v>
+      </c>
+      <c r="J40" s="59">
+        <f t="shared" si="2"/>
+        <v>0.2507533362924606</v>
+      </c>
+      <c r="K40" s="15">
+        <f t="shared" si="3"/>
+        <v>-121.09320257081822</v>
+      </c>
+      <c r="L40" s="60">
+        <f t="shared" si="4"/>
+        <v>14663.563708857217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <v>0.28711045761982101</v>
+      </c>
+      <c r="D41">
+        <v>0.30739806464633529</v>
+      </c>
+      <c r="E41">
+        <v>0.35172821059287279</v>
+      </c>
+      <c r="F41">
+        <v>330.0439883980045</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="1"/>
+        <v>330.0439883980045</v>
+      </c>
+      <c r="H41" s="62">
+        <v>35.158585086042002</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="0"/>
+        <v>351.58585086042001</v>
+      </c>
+      <c r="J41" s="59">
+        <f t="shared" si="2"/>
+        <v>6.5269670770181962E-2</v>
+      </c>
+      <c r="K41" s="15">
+        <f t="shared" si="3"/>
+        <v>21.541862462415509</v>
+      </c>
+      <c r="L41" s="60">
+        <f t="shared" si="4"/>
+        <v>464.05183834962634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.35379666744058441</v>
+      </c>
+      <c r="D42">
+        <v>0.35873271592595479</v>
+      </c>
+      <c r="E42">
+        <v>0.35641835574141867</v>
+      </c>
+      <c r="F42">
+        <v>357.43052766028859</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="1"/>
+        <v>357.43052766028859</v>
+      </c>
+      <c r="H42" s="62">
+        <v>34.008645038168368</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="0"/>
+        <v>340.08645038168368</v>
+      </c>
+      <c r="J42" s="59">
+        <f t="shared" si="2"/>
+        <v>4.8524331125653547E-2</v>
+      </c>
+      <c r="K42" s="15">
+        <f t="shared" si="3"/>
+        <v>-17.344077278604914</v>
+      </c>
+      <c r="L42" s="60">
+        <f t="shared" si="4"/>
+        <v>300.81701664621926</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C835788D-F2F9-48F1-AA33-EC54C131C1CB}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <f>Kumano!D2</f>
-        <v>43000</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <f>Kumano!D3</f>
-        <v>43001</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <f>Kumano!D4</f>
-        <v>43002</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <f>Kumano!D5</f>
-        <v>43003</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <f>Kumano!D6</f>
-        <v>43004</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <f>Kumano!D7</f>
-        <v>43005</v>
-      </c>
-      <c r="B7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <f>Kumano!D8</f>
-        <v>43006</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <f>Kumano!D9</f>
-        <v>43007</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <f>Kumano!D10</f>
-        <v>43008</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <f>Kumano!D11</f>
-        <v>43009</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f>Kumano!D12</f>
-        <v>43010</v>
-      </c>
-      <c r="B12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f>Kumano!D13</f>
-        <v>43011</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <f>Kumano!D14</f>
-        <v>43012</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <f>Kumano!D15</f>
-        <v>43013</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <f>Kumano!D16</f>
-        <v>43014</v>
-      </c>
-      <c r="B16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <f>Kumano!D17</f>
-        <v>43015</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <f>Kumano!D18</f>
-        <v>43016</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <f>Kumano!D19</f>
-        <v>43017</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <f>Kumano!D20</f>
-        <v>43018</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <f>Kumano!D21</f>
-        <v>43019</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <f>Kumano!D22</f>
-        <v>43020</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <f>Kumano!D23</f>
-        <v>43021</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <f>Kumano!D24</f>
-        <v>43022</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <f>Kumano!D25</f>
-        <v>43023</v>
-      </c>
-      <c r="B25">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <f>Kumano!D26</f>
-        <v>43024</v>
-      </c>
-      <c r="B26">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <f>Kumano!D27</f>
-        <v>43025</v>
-      </c>
-      <c r="B27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <f>Kumano!D28</f>
-        <v>43026</v>
-      </c>
-      <c r="B28">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <f>Kumano!D29</f>
-        <v>43027</v>
-      </c>
-      <c r="B29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <f>Kumano!D30</f>
-        <v>43028</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <f>Kumano!D31</f>
-        <v>43029</v>
-      </c>
-      <c r="B31">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>293</v>
-      </c>
-      <c r="B33">
-        <f>AVERAGE(B2:B31)</f>
-        <v>17.133333333333333</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D33">
-        <f>ABS(B7-B31)/SQRT(B34)</f>
-        <v>28.577783199046817</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B34">
-        <f>_xlfn.STDEV.P(B2:B31)</f>
-        <v>36.646721848239331</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D34">
-        <f>TDIST(D33,28,2)</f>
-        <v>2.9360334263754072E-22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/soilmodel_hashimoto_sandyclayloam.xlsx
+++ b/soilmodel_hashimoto_sandyclayloam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12402\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4273035-5070-49DE-BE1B-C660C85A8918}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A4D650-A13B-4A17-8AA8-F6AB4EB7ACB6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="-375" windowWidth="7770" windowHeight="8745" tabRatio="546" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="298">
   <si>
     <t>CONTROL</t>
   </si>
@@ -3532,6 +3532,44 @@
   </si>
   <si>
     <t>RMSE</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>MAE</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>残差(絶対値)</t>
+    <rPh sb="0" eb="2">
+      <t>ザンサ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゼッタイチ</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>MAPE</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>RMSPE</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>(推定値-真値)/真値</t>
+    <rPh sb="1" eb="3">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンチ</t>
+    </rPh>
     <phoneticPr fontId="22"/>
   </si>
 </sst>
@@ -5493,7 +5531,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21550353417278481"/>
+          <c:y val="5.091349206349207E-2"/>
+          <c:w val="0.5579457364341085"/>
+          <c:h val="0.59889801587301583"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -8984,16 +9032,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>3450</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>127275</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>100650</xdr:rowOff>
+      <xdr:rowOff>53025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9020,16 +9068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>496845</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>601620</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>43500</xdr:rowOff>
+      <xdr:rowOff>14925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9058,16 +9106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>496845</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>601620</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>110175</xdr:rowOff>
+      <xdr:rowOff>62550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9096,14 +9144,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>12975</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>79650</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>43500</xdr:rowOff>
     </xdr:to>
@@ -9134,16 +9182,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>290511</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13991,10 +14039,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="P2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14007,18 +14055,20 @@
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>88</v>
       </c>
@@ -14043,8 +14093,13 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>doy</f>
         <v>35</v>
@@ -14070,7 +14125,7 @@
         <v>329.13922049334383</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C4" t="b">
         <v>0</v>
       </c>
@@ -14084,7 +14139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -14107,16 +14162,33 @@
         <v>290</v>
       </c>
       <c r="L7" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="Q7" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="R7" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S7" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="T7" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -14151,23 +14223,50 @@
         <v>1.5586879913848559E-4</v>
       </c>
       <c r="K8" s="15">
-        <f>I8-G8</f>
+        <f>G8-I8</f>
+        <v>-4.1071428572990953E-2</v>
+      </c>
+      <c r="L8" s="15">
+        <f>ABS(K8)</f>
         <v>4.1071428572990953E-2</v>
       </c>
-      <c r="L8" s="60">
+      <c r="M8" s="15">
+        <f>L8/I8</f>
+        <v>1.558445078421959E-4</v>
+      </c>
+      <c r="N8" s="15">
+        <f>K8/H8</f>
+        <v>-1.5584450784219591E-3</v>
+      </c>
+      <c r="O8" s="15">
+        <f>N8^2</f>
+        <v>2.4287510624576261E-6</v>
+      </c>
+      <c r="P8" s="60">
         <f>K8^2</f>
         <v>1.6868622450262978E-3</v>
       </c>
-      <c r="M8">
-        <f>SQRT(SUM(L8:L42)/35)</f>
+      <c r="Q8" s="60">
+        <f>SUM(L8:L42)/35</f>
+        <v>14.523699491776297</v>
+      </c>
+      <c r="R8">
+        <f>SQRT(SUM(P8:P42)/35)</f>
         <v>25.892691789538599</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8">
+        <f>SUM(M8:M42)*(100/35)</f>
+        <v>4.3526426326382017</v>
+      </c>
+      <c r="T8" s="3">
+        <f>SQRT(SUM(O8:O42)*(1/35))</f>
+        <v>0.73547465149907765</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -14202,19 +14301,36 @@
         <v>1.4526659506760464E-2</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" ref="K9:K42" si="3">I9-G9</f>
-        <v>-3.8728886622633922</v>
-      </c>
-      <c r="L9" s="60">
-        <f t="shared" ref="L9:L42" si="4">K9^2</f>
+        <f t="shared" ref="K9:K42" si="3">G9-I9</f>
+        <v>3.8728886622633922</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" ref="L9:L42" si="4">ABS(K9)</f>
+        <v>3.8728886622633922</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" ref="M9:M42" si="5">L9/I9</f>
+        <v>1.4740794002088095E-2</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" ref="N9:N42" si="6">K9/H9</f>
+        <v>0.14740794002088095</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" ref="O9:O42" si="7">N9^2</f>
+        <v>2.1729100781199637E-2</v>
+      </c>
+      <c r="P9" s="60">
+        <f t="shared" ref="P9:P42" si="8">K9^2</f>
         <v>14.999266590288327</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q9" s="60"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -14250,18 +14366,35 @@
       </c>
       <c r="K10" s="15">
         <f t="shared" si="3"/>
-        <v>-2.2401835691130145</v>
-      </c>
-      <c r="L10" s="60">
+        <v>2.2401835691130145</v>
+      </c>
+      <c r="L10" s="15">
         <f t="shared" si="4"/>
+        <v>2.2401835691130145</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="5"/>
+        <v>8.5347411201420441E-3</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="6"/>
+        <v>8.5347411201420448E-2</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="7"/>
+        <v>7.2841805987843488E-3</v>
+      </c>
+      <c r="P10" s="60">
+        <f t="shared" si="8"/>
         <v>5.0184224233239245</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q10" s="60"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -14297,18 +14430,35 @@
       </c>
       <c r="K11" s="15">
         <f t="shared" si="3"/>
-        <v>-0.53445631019332041</v>
-      </c>
-      <c r="L11" s="60">
+        <v>0.53445631019332041</v>
+      </c>
+      <c r="L11" s="15">
         <f t="shared" si="4"/>
+        <v>0.53445631019332041</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="5"/>
+        <v>2.0433774009971477E-3</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="6"/>
+        <v>2.043377400997148E-2</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="7"/>
+        <v>4.1753912029058595E-4</v>
+      </c>
+      <c r="P11" s="60">
+        <f t="shared" si="8"/>
         <v>0.28564354750545873</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q11" s="60"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -14344,18 +14494,35 @@
       </c>
       <c r="K12" s="15">
         <f t="shared" si="3"/>
+        <v>-1.6654357694139321</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="4"/>
         <v>1.6654357694139321</v>
       </c>
-      <c r="L12" s="60">
-        <f t="shared" si="4"/>
+      <c r="M12" s="15">
+        <f t="shared" si="5"/>
+        <v>6.3734899683828214E-3</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="6"/>
+        <v>-6.3734899683828214E-2</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="7"/>
+        <v>4.0621374377076457E-3</v>
+      </c>
+      <c r="P12" s="60">
+        <f t="shared" si="8"/>
         <v>2.7736763020433761</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q12" s="60"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -14391,18 +14558,35 @@
       </c>
       <c r="K13" s="15">
         <f t="shared" si="3"/>
+        <v>-3.5879007644808212</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="4"/>
         <v>3.5879007644808212</v>
       </c>
-      <c r="L13" s="60">
-        <f t="shared" si="4"/>
+      <c r="M13" s="15">
+        <f t="shared" si="5"/>
+        <v>1.3751248997920702E-2</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.13751248997920704</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" si="7"/>
+        <v>1.8909684900281516E-2</v>
+      </c>
+      <c r="P13" s="60">
+        <f t="shared" si="8"/>
         <v>12.873031895762061</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q13" s="60"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
         <v>6</v>
       </c>
@@ -14438,18 +14622,35 @@
       </c>
       <c r="K14" s="15">
         <f t="shared" si="3"/>
-        <v>-3.0945476463415957</v>
-      </c>
-      <c r="L14" s="60">
+        <v>3.0945476463415957</v>
+      </c>
+      <c r="L14" s="15">
         <f t="shared" si="4"/>
+        <v>3.0945476463415957</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="5"/>
+        <v>1.1434136945796749E-2</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="6"/>
+        <v>0.1143413694579675</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="7"/>
+        <v>1.3073948769523423E-2</v>
+      </c>
+      <c r="P14" s="60">
+        <f t="shared" si="8"/>
         <v>9.5762251354783103</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q14" s="60"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>7</v>
       </c>
@@ -14485,18 +14686,35 @@
       </c>
       <c r="K15" s="15">
         <f t="shared" si="3"/>
-        <v>-2.8973180843698856</v>
-      </c>
-      <c r="L15" s="60">
+        <v>2.8973180843698856</v>
+      </c>
+      <c r="L15" s="15">
         <f t="shared" si="4"/>
+        <v>2.8973180843698856</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="5"/>
+        <v>1.0699337716382278E-2</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="6"/>
+        <v>0.10699337716382278</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="7"/>
+        <v>1.1447582756920033E-2</v>
+      </c>
+      <c r="P15" s="60">
+        <f t="shared" si="8"/>
         <v>8.3944520820167838</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q15" s="60"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>8</v>
       </c>
@@ -14532,18 +14750,35 @@
       </c>
       <c r="K16" s="15">
         <f t="shared" si="3"/>
-        <v>-1.7864687703749951</v>
-      </c>
-      <c r="L16" s="60">
+        <v>1.7864687703749951</v>
+      </c>
+      <c r="L16" s="15">
         <f t="shared" si="4"/>
+        <v>1.7864687703749951</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="5"/>
+        <v>6.647612986499761E-3</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="6"/>
+        <v>6.647612986499761E-2</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="7"/>
+        <v>4.4190758418280272E-3</v>
+      </c>
+      <c r="P16" s="60">
+        <f t="shared" si="8"/>
         <v>3.191470667525147</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q16" s="60"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>9</v>
       </c>
@@ -14579,18 +14814,35 @@
       </c>
       <c r="K17" s="15">
         <f t="shared" si="3"/>
-        <v>-1.0519706297729385</v>
-      </c>
-      <c r="L17" s="60">
+        <v>1.0519706297729385</v>
+      </c>
+      <c r="L17" s="15">
         <f t="shared" si="4"/>
+        <v>1.0519706297729385</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="5"/>
+        <v>3.9459730213283672E-3</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="6"/>
+        <v>3.9459730213283674E-2</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="7"/>
+        <v>1.5570703085051325E-3</v>
+      </c>
+      <c r="P17" s="60">
+        <f t="shared" si="8"/>
         <v>1.1066422059048728</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="60"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>10</v>
       </c>
@@ -14626,18 +14878,35 @@
       </c>
       <c r="K18" s="15">
         <f t="shared" si="3"/>
+        <v>-19.214844556689911</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="4"/>
         <v>19.214844556689911</v>
       </c>
-      <c r="L18" s="60">
-        <f t="shared" si="4"/>
+      <c r="M18" s="15">
+        <f t="shared" si="5"/>
+        <v>6.7622134303936529E-2</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.67622134303936521</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="7"/>
+        <v>0.45727530478196282</v>
+      </c>
+      <c r="P18" s="60">
+        <f t="shared" si="8"/>
         <v>369.21025133775589</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="60"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>11</v>
       </c>
@@ -14673,14 +14942,31 @@
       </c>
       <c r="K19" s="15">
         <f t="shared" si="3"/>
+        <v>-6.3614023583454014</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="4"/>
         <v>6.3614023583454014</v>
       </c>
-      <c r="L19" s="60">
-        <f t="shared" si="4"/>
+      <c r="M19" s="15">
+        <f t="shared" si="5"/>
+        <v>2.0711102109023598E-2</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.20711102109023599</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="7"/>
+        <v>4.289497505704018E-2</v>
+      </c>
+      <c r="P19" s="60">
+        <f t="shared" si="8"/>
         <v>40.467439964762434</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q19" s="60"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>12</v>
       </c>
@@ -14716,14 +15002,31 @@
       </c>
       <c r="K20" s="15">
         <f t="shared" si="3"/>
-        <v>-6.811527111509065</v>
-      </c>
-      <c r="L20" s="60">
+        <v>6.811527111509065</v>
+      </c>
+      <c r="L20" s="15">
         <f t="shared" si="4"/>
+        <v>6.811527111509065</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="5"/>
+        <v>2.3321609866524581E-2</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="6"/>
+        <v>0.23321609866524581</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="7"/>
+        <v>5.4389748676637671E-2</v>
+      </c>
+      <c r="P20" s="60">
+        <f t="shared" si="8"/>
         <v>46.396901590823028</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="60"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13</v>
       </c>
@@ -14759,14 +15062,31 @@
       </c>
       <c r="K21" s="15">
         <f t="shared" si="3"/>
-        <v>-8.1581792493050216</v>
-      </c>
-      <c r="L21" s="60">
+        <v>8.1581792493050216</v>
+      </c>
+      <c r="L21" s="15">
         <f t="shared" si="4"/>
+        <v>8.1581792493050216</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="5"/>
+        <v>2.8539142098699847E-2</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="6"/>
+        <v>0.28539142098699849</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="7"/>
+        <v>8.1448263172978208E-2</v>
+      </c>
+      <c r="P21" s="60">
+        <f t="shared" si="8"/>
         <v>66.555888663791052</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q21" s="60"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>14</v>
       </c>
@@ -14802,14 +15122,31 @@
       </c>
       <c r="K22" s="15">
         <f t="shared" si="3"/>
+        <v>-10.272985232486121</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="4"/>
         <v>10.272985232486121</v>
       </c>
-      <c r="L22" s="60">
-        <f t="shared" si="4"/>
+      <c r="M22" s="15">
+        <f t="shared" si="5"/>
+        <v>3.3546307590974746E-2</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.33546307590974744</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="7"/>
+        <v>0.11253547529882897</v>
+      </c>
+      <c r="P22" s="60">
+        <f t="shared" si="8"/>
         <v>105.53422558687792</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="60"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>15</v>
       </c>
@@ -14845,14 +15182,31 @@
       </c>
       <c r="K23" s="15">
         <f t="shared" si="3"/>
-        <v>-10.023884055577184</v>
-      </c>
-      <c r="L23" s="60">
+        <v>10.023884055577184</v>
+      </c>
+      <c r="L23" s="15">
         <f t="shared" si="4"/>
+        <v>10.023884055577184</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="5"/>
+        <v>3.11078986920247E-2</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="6"/>
+        <v>0.31107898692024699</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="7"/>
+        <v>9.6770136103327201E-2</v>
+      </c>
+      <c r="P23" s="60">
+        <f t="shared" si="8"/>
         <v>100.47825155965451</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="60"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>16</v>
       </c>
@@ -14888,14 +15242,31 @@
       </c>
       <c r="K24" s="15">
         <f t="shared" si="3"/>
-        <v>-15.113741625849684</v>
-      </c>
-      <c r="L24" s="60">
+        <v>15.113741625849684</v>
+      </c>
+      <c r="L24" s="15">
         <f t="shared" si="4"/>
+        <v>15.113741625849684</v>
+      </c>
+      <c r="M24" s="15">
+        <f t="shared" si="5"/>
+        <v>4.9374618343785211E-2</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="6"/>
+        <v>0.49374618343785209</v>
+      </c>
+      <c r="O24" s="15">
+        <f t="shared" si="7"/>
+        <v>0.2437852936594451</v>
+      </c>
+      <c r="P24" s="60">
+        <f t="shared" si="8"/>
         <v>228.42518593294145</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="60"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17</v>
       </c>
@@ -14931,14 +15302,31 @@
       </c>
       <c r="K25" s="15">
         <f t="shared" si="3"/>
-        <v>-11.544882560222788</v>
-      </c>
-      <c r="L25" s="60">
+        <v>11.544882560222788</v>
+      </c>
+      <c r="L25" s="15">
         <f t="shared" si="4"/>
+        <v>11.544882560222788</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="5"/>
+        <v>3.834361063799719E-2</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="6"/>
+        <v>0.38343610637997189</v>
+      </c>
+      <c r="O25" s="15">
+        <f t="shared" si="7"/>
+        <v>0.14702324767583311</v>
+      </c>
+      <c r="P25" s="60">
+        <f t="shared" si="8"/>
         <v>133.2843133293363</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q25" s="60"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>18</v>
       </c>
@@ -14974,14 +15362,31 @@
       </c>
       <c r="K26" s="15">
         <f t="shared" si="3"/>
-        <v>-12.350968852907556</v>
-      </c>
-      <c r="L26" s="60">
+        <v>12.350968852907556</v>
+      </c>
+      <c r="L26" s="15">
         <f t="shared" si="4"/>
+        <v>12.350968852907556</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="5"/>
+        <v>4.1723327314252392E-2</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="6"/>
+        <v>0.41723327314252395</v>
+      </c>
+      <c r="O26" s="15">
+        <f t="shared" si="7"/>
+        <v>0.17408360421722399</v>
+      </c>
+      <c r="P26" s="60">
+        <f t="shared" si="8"/>
         <v>152.54643160549259</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="60"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>19</v>
       </c>
@@ -15017,14 +15422,31 @@
       </c>
       <c r="K27" s="15">
         <f t="shared" si="3"/>
-        <v>-8.550314939373493</v>
-      </c>
-      <c r="L27" s="60">
+        <v>8.550314939373493</v>
+      </c>
+      <c r="L27" s="15">
         <f t="shared" si="4"/>
+        <v>8.550314939373493</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="5"/>
+        <v>2.9121282014860184E-2</v>
+      </c>
+      <c r="N27" s="15">
+        <f t="shared" si="6"/>
+        <v>0.29121282014860184</v>
+      </c>
+      <c r="O27" s="15">
+        <f t="shared" si="7"/>
+        <v>8.4804906618901915E-2</v>
+      </c>
+      <c r="P27" s="60">
+        <f t="shared" si="8"/>
         <v>73.107885562473541</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="60"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20</v>
       </c>
@@ -15060,14 +15482,31 @@
       </c>
       <c r="K28" s="15">
         <f t="shared" si="3"/>
-        <v>-5.8465371607308043</v>
-      </c>
-      <c r="L28" s="60">
+        <v>5.8465371607308043</v>
+      </c>
+      <c r="L28" s="15">
         <f t="shared" si="4"/>
+        <v>5.8465371607308043</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="5"/>
+        <v>2.0097239558694593E-2</v>
+      </c>
+      <c r="N28" s="15">
+        <f t="shared" si="6"/>
+        <v>0.20097239558694591</v>
+      </c>
+      <c r="O28" s="15">
+        <f t="shared" si="7"/>
+        <v>4.0389903787955872E-2</v>
+      </c>
+      <c r="P28" s="60">
+        <f t="shared" si="8"/>
         <v>34.181996771806212</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q28" s="60"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21</v>
       </c>
@@ -15103,14 +15542,31 @@
       </c>
       <c r="K29" s="15">
         <f t="shared" si="3"/>
-        <v>-4.4656509995746205</v>
-      </c>
-      <c r="L29" s="60">
+        <v>4.4656509995746205</v>
+      </c>
+      <c r="L29" s="15">
         <f t="shared" si="4"/>
+        <v>4.4656509995746205</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="5"/>
+        <v>1.5540146760727E-2</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="6"/>
+        <v>0.15540146760727</v>
+      </c>
+      <c r="O29" s="15">
+        <f t="shared" si="7"/>
+        <v>2.4149616134493387E-2</v>
+      </c>
+      <c r="P29" s="60">
+        <f t="shared" si="8"/>
         <v>19.942038850001808</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="60"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>22</v>
       </c>
@@ -15146,14 +15602,31 @@
       </c>
       <c r="K30" s="15">
         <f t="shared" si="3"/>
-        <v>-4.5904489566175926</v>
-      </c>
-      <c r="L30" s="60">
+        <v>4.5904489566175926</v>
+      </c>
+      <c r="L30" s="15">
         <f t="shared" si="4"/>
+        <v>4.5904489566175926</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="5"/>
+        <v>1.6223781796707592E-2</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="6"/>
+        <v>0.1622378179670759</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="7"/>
+        <v>2.6321109578718055E-2</v>
+      </c>
+      <c r="P30" s="60">
+        <f t="shared" si="8"/>
         <v>21.072221623311545</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q30" s="60"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>23</v>
       </c>
@@ -15189,14 +15662,31 @@
       </c>
       <c r="K31" s="15">
         <f t="shared" si="3"/>
+        <v>-43.613307979584988</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="4"/>
         <v>43.613307979584988</v>
       </c>
-      <c r="L31" s="60">
-        <f t="shared" si="4"/>
+      <c r="M31" s="15">
+        <f t="shared" si="5"/>
+        <v>0.13292438340939111</v>
+      </c>
+      <c r="N31" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.329243834093911</v>
+      </c>
+      <c r="O31" s="15">
+        <f t="shared" si="7"/>
+        <v>1.7668891704766807</v>
+      </c>
+      <c r="P31" s="60">
+        <f t="shared" si="8"/>
         <v>1902.1206329221316</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q31" s="60"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>24</v>
       </c>
@@ -15232,14 +15722,31 @@
       </c>
       <c r="K32" s="15">
         <f t="shared" si="3"/>
+        <v>-39.694725096458058</v>
+      </c>
+      <c r="L32" s="15">
+        <f t="shared" si="4"/>
         <v>39.694725096458058</v>
       </c>
-      <c r="L32" s="60">
-        <f t="shared" si="4"/>
+      <c r="M32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.11301058014967744</v>
+      </c>
+      <c r="N32" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.1301058014967744</v>
+      </c>
+      <c r="O32" s="15">
+        <f t="shared" si="7"/>
+        <v>1.2771391225766668</v>
+      </c>
+      <c r="P32" s="60">
+        <f t="shared" si="8"/>
         <v>1575.6712004833771</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q32" s="60"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>25</v>
       </c>
@@ -15275,14 +15782,31 @@
       </c>
       <c r="K33" s="15">
         <f t="shared" si="3"/>
+        <v>-24.697893295639574</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" si="4"/>
         <v>24.697893295639574</v>
       </c>
-      <c r="L33" s="60">
-        <f t="shared" si="4"/>
+      <c r="M33" s="15">
+        <f t="shared" si="5"/>
+        <v>6.984462067217527E-2</v>
+      </c>
+      <c r="N33" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.69844620672175273</v>
+      </c>
+      <c r="O33" s="15">
+        <f t="shared" si="7"/>
+        <v>0.48782710368400534</v>
+      </c>
+      <c r="P33" s="60">
+        <f t="shared" si="8"/>
         <v>609.98593324279818</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q33" s="60"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>26</v>
       </c>
@@ -15318,14 +15842,31 @@
       </c>
       <c r="K34" s="15">
         <f t="shared" si="3"/>
+        <v>-6.6166856272496943</v>
+      </c>
+      <c r="L34" s="15">
+        <f t="shared" si="4"/>
         <v>6.6166856272496943</v>
       </c>
-      <c r="L34" s="60">
-        <f t="shared" si="4"/>
+      <c r="M34" s="15">
+        <f t="shared" si="5"/>
+        <v>1.942763492972804E-2</v>
+      </c>
+      <c r="N34" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.19427634929728044</v>
+      </c>
+      <c r="O34" s="15">
+        <f t="shared" si="7"/>
+        <v>3.774329989627892E-2</v>
+      </c>
+      <c r="P34" s="60">
+        <f t="shared" si="8"/>
         <v>43.78052868985268</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q34" s="60"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>27</v>
       </c>
@@ -15361,14 +15902,31 @@
       </c>
       <c r="K35" s="15">
         <f t="shared" si="3"/>
+        <v>-21.95122522259112</v>
+      </c>
+      <c r="L35" s="15">
+        <f t="shared" si="4"/>
         <v>21.95122522259112</v>
       </c>
-      <c r="L35" s="60">
-        <f t="shared" si="4"/>
+      <c r="M35" s="15">
+        <f t="shared" si="5"/>
+        <v>6.0690674208567899E-2</v>
+      </c>
+      <c r="N35" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.60690674208567896</v>
+      </c>
+      <c r="O35" s="15">
+        <f t="shared" si="7"/>
+        <v>0.36833579358905283</v>
+      </c>
+      <c r="P35" s="60">
+        <f t="shared" si="8"/>
         <v>481.85628877292055</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q35" s="60"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>28</v>
       </c>
@@ -15404,14 +15962,31 @@
       </c>
       <c r="K36" s="15">
         <f t="shared" si="3"/>
+        <v>-0.6744145571007607</v>
+      </c>
+      <c r="L36" s="15">
+        <f t="shared" si="4"/>
         <v>0.6744145571007607</v>
       </c>
-      <c r="L36" s="60">
-        <f t="shared" si="4"/>
+      <c r="M36" s="15">
+        <f t="shared" si="5"/>
+        <v>1.9576195253138587E-3</v>
+      </c>
+      <c r="N36" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.9576195253138588E-2</v>
+      </c>
+      <c r="O36" s="15">
+        <f t="shared" si="7"/>
+        <v>3.8322742058900577E-4</v>
+      </c>
+      <c r="P36" s="60">
+        <f t="shared" si="8"/>
         <v>0.4548349948294152</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q36" s="60"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>29</v>
       </c>
@@ -15447,14 +16022,31 @@
       </c>
       <c r="K37" s="15">
         <f t="shared" si="3"/>
+        <v>-37.667093416798537</v>
+      </c>
+      <c r="L37" s="15">
+        <f t="shared" si="4"/>
         <v>37.667093416798537</v>
       </c>
-      <c r="L37" s="60">
-        <f t="shared" si="4"/>
+      <c r="M37" s="15">
+        <f t="shared" si="5"/>
+        <v>0.10193787379700575</v>
+      </c>
+      <c r="N37" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.0193787379700576</v>
+      </c>
+      <c r="O37" s="15">
+        <f t="shared" si="7"/>
+        <v>1.0391330114254274</v>
+      </c>
+      <c r="P37" s="60">
+        <f t="shared" si="8"/>
         <v>1418.8099264698276</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q37" s="60"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>30</v>
       </c>
@@ -15490,14 +16082,31 @@
       </c>
       <c r="K38" s="15">
         <f t="shared" si="3"/>
-        <v>-6.8161681368754898</v>
-      </c>
-      <c r="L38" s="60">
+        <v>6.8161681368754898</v>
+      </c>
+      <c r="L38" s="15">
         <f t="shared" si="4"/>
+        <v>6.8161681368754898</v>
+      </c>
+      <c r="M38" s="15">
+        <f t="shared" si="5"/>
+        <v>1.8661838355935507E-2</v>
+      </c>
+      <c r="N38" s="15">
+        <f t="shared" si="6"/>
+        <v>0.18661838355935509</v>
+      </c>
+      <c r="O38" s="15">
+        <f t="shared" si="7"/>
+        <v>3.4826421082306575E-2</v>
+      </c>
+      <c r="P38" s="60">
+        <f t="shared" si="8"/>
         <v>46.460148070156684</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q38" s="60"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>31</v>
       </c>
@@ -15533,14 +16142,31 @@
       </c>
       <c r="K39" s="15">
         <f t="shared" si="3"/>
-        <v>-22.541217273947382</v>
-      </c>
-      <c r="L39" s="60">
+        <v>22.541217273947382</v>
+      </c>
+      <c r="L39" s="15">
         <f t="shared" si="4"/>
+        <v>22.541217273947382</v>
+      </c>
+      <c r="M39" s="15">
+        <f t="shared" si="5"/>
+        <v>6.4427408105717315E-2</v>
+      </c>
+      <c r="N39" s="15">
+        <f t="shared" si="6"/>
+        <v>0.6442740810571731</v>
+      </c>
+      <c r="O39" s="15">
+        <f t="shared" si="7"/>
+        <v>0.41508909152206486</v>
+      </c>
+      <c r="P39" s="60">
+        <f t="shared" si="8"/>
         <v>508.10647619130384</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q39" s="60"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>32</v>
       </c>
@@ -15576,14 +16202,31 @@
       </c>
       <c r="K40" s="15">
         <f t="shared" si="3"/>
-        <v>-121.09320257081822</v>
-      </c>
-      <c r="L40" s="60">
+        <v>121.09320257081822</v>
+      </c>
+      <c r="L40" s="15">
         <f t="shared" si="4"/>
+        <v>121.09320257081822</v>
+      </c>
+      <c r="M40" s="15">
+        <f t="shared" si="5"/>
+        <v>0.33467394442791876</v>
+      </c>
+      <c r="N40" s="15">
+        <f t="shared" si="6"/>
+        <v>3.346739444279188</v>
+      </c>
+      <c r="O40" s="15">
+        <f t="shared" si="7"/>
+        <v>11.200664907894168</v>
+      </c>
+      <c r="P40" s="60">
+        <f t="shared" si="8"/>
         <v>14663.563708857217</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q40" s="60"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>33</v>
       </c>
@@ -15619,14 +16262,31 @@
       </c>
       <c r="K41" s="15">
         <f t="shared" si="3"/>
+        <v>-21.541862462415509</v>
+      </c>
+      <c r="L41" s="15">
+        <f t="shared" si="4"/>
         <v>21.541862462415509</v>
       </c>
-      <c r="L41" s="60">
-        <f t="shared" si="4"/>
+      <c r="M41" s="15">
+        <f t="shared" si="5"/>
+        <v>6.1270561399718142E-2</v>
+      </c>
+      <c r="N41" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.61270561399718138</v>
+      </c>
+      <c r="O41" s="15">
+        <f t="shared" si="7"/>
+        <v>0.37540816942366301</v>
+      </c>
+      <c r="P41" s="60">
+        <f t="shared" si="8"/>
         <v>464.05183834962634</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q41" s="60"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>34</v>
       </c>
@@ -15662,12 +16322,29 @@
       </c>
       <c r="K42" s="15">
         <f t="shared" si="3"/>
-        <v>-17.344077278604914</v>
-      </c>
-      <c r="L42" s="60">
+        <v>17.344077278604914</v>
+      </c>
+      <c r="L42" s="15">
         <f t="shared" si="4"/>
+        <v>17.344077278604914</v>
+      </c>
+      <c r="M42" s="15">
+        <f t="shared" si="5"/>
+        <v>5.0999024686633115E-2</v>
+      </c>
+      <c r="N42" s="15">
+        <f t="shared" si="6"/>
+        <v>0.5099902468663311</v>
+      </c>
+      <c r="O42" s="15">
+        <f t="shared" si="7"/>
+        <v>0.26009005189878132</v>
+      </c>
+      <c r="P42" s="60">
+        <f t="shared" si="8"/>
         <v>300.81701664621926</v>
       </c>
+      <c r="Q42" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22"/>
